--- a/config_2.9/fish_2d_fish_server.xlsx
+++ b/config_2.9/fish_2d_fish_server.xlsx
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="417">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1732,6 +1732,46 @@
   <si>
     <t>0,0,0.4,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0.4,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>183,</t>
+  </si>
+  <si>
+    <t>184,</t>
+  </si>
+  <si>
+    <t>185,</t>
+  </si>
+  <si>
+    <t>186,</t>
+  </si>
+  <si>
+    <t>187,</t>
+  </si>
+  <si>
+    <t>188,</t>
+  </si>
+  <si>
+    <t>189,</t>
+  </si>
+  <si>
+    <t>190,</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1829,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1805,6 +1845,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,7 +1894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1916,6 +1962,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2203,7 +2265,7 @@
   <dimension ref="A1:W233"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="F209" sqref="F209"/>
+      <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8105,36 +8167,292 @@
       </c>
     </row>
     <row r="210" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J210" s="24"/>
-      <c r="Q210" s="26"/>
+      <c r="A210" s="27">
+        <v>209</v>
+      </c>
+      <c r="B210" s="27">
+        <v>1</v>
+      </c>
+      <c r="C210" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="27"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="I210" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="J210" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K210" s="27"/>
+      <c r="L210" s="27"/>
+      <c r="M210" s="27"/>
+      <c r="N210" s="27"/>
+      <c r="O210" s="27"/>
+      <c r="P210" s="27"/>
+      <c r="Q210" s="32">
+        <v>183</v>
+      </c>
     </row>
     <row r="211" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J211" s="24"/>
-      <c r="Q211" s="26"/>
+      <c r="A211" s="27">
+        <v>210</v>
+      </c>
+      <c r="B211" s="27">
+        <v>1</v>
+      </c>
+      <c r="C211" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="D211" s="27"/>
+      <c r="E211" s="27"/>
+      <c r="F211" s="27"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="I211" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="J211" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K211" s="27"/>
+      <c r="L211" s="27"/>
+      <c r="M211" s="27"/>
+      <c r="N211" s="27"/>
+      <c r="O211" s="27"/>
+      <c r="P211" s="27"/>
+      <c r="Q211" s="32">
+        <v>184</v>
+      </c>
     </row>
     <row r="212" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J212" s="24"/>
-      <c r="Q212" s="26"/>
+      <c r="A212" s="27">
+        <v>211</v>
+      </c>
+      <c r="B212" s="27">
+        <v>1</v>
+      </c>
+      <c r="C212" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="27"/>
+      <c r="G212" s="27"/>
+      <c r="H212" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="I212" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="J212" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K212" s="27"/>
+      <c r="L212" s="27"/>
+      <c r="M212" s="27"/>
+      <c r="N212" s="27"/>
+      <c r="O212" s="27"/>
+      <c r="P212" s="27"/>
+      <c r="Q212" s="32">
+        <v>185</v>
+      </c>
     </row>
     <row r="213" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J213" s="24"/>
-      <c r="Q213" s="26"/>
+      <c r="A213" s="27">
+        <v>212</v>
+      </c>
+      <c r="B213" s="27">
+        <v>1</v>
+      </c>
+      <c r="C213" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="27"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="I213" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="J213" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K213" s="27"/>
+      <c r="L213" s="27"/>
+      <c r="M213" s="27"/>
+      <c r="N213" s="27"/>
+      <c r="O213" s="27"/>
+      <c r="P213" s="27"/>
+      <c r="Q213" s="32">
+        <v>186</v>
+      </c>
     </row>
     <row r="214" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J214" s="24"/>
-      <c r="Q214" s="26"/>
+      <c r="A214" s="27">
+        <v>213</v>
+      </c>
+      <c r="B214" s="27">
+        <v>1</v>
+      </c>
+      <c r="C214" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="27"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="I214" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="J214" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K214" s="27"/>
+      <c r="L214" s="27"/>
+      <c r="M214" s="27"/>
+      <c r="N214" s="27"/>
+      <c r="O214" s="27"/>
+      <c r="P214" s="27"/>
+      <c r="Q214" s="32">
+        <v>187</v>
+      </c>
     </row>
     <row r="215" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J215" s="24"/>
-      <c r="Q215" s="26"/>
+      <c r="A215" s="27">
+        <v>214</v>
+      </c>
+      <c r="B215" s="27">
+        <v>1</v>
+      </c>
+      <c r="C215" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="D215" s="27"/>
+      <c r="E215" s="27"/>
+      <c r="F215" s="27"/>
+      <c r="G215" s="27"/>
+      <c r="H215" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="I215" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="J215" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K215" s="27"/>
+      <c r="L215" s="27"/>
+      <c r="M215" s="27"/>
+      <c r="N215" s="27"/>
+      <c r="O215" s="27"/>
+      <c r="P215" s="27"/>
+      <c r="Q215" s="32">
+        <v>188</v>
+      </c>
     </row>
     <row r="216" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J216" s="24"/>
-      <c r="Q216" s="26"/>
+      <c r="A216" s="27">
+        <v>215</v>
+      </c>
+      <c r="B216" s="27">
+        <v>1</v>
+      </c>
+      <c r="C216" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="27"/>
+      <c r="G216" s="27"/>
+      <c r="H216" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>350</v>
+      </c>
+      <c r="I216" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>350</v>
+      </c>
+      <c r="J216" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K216" s="27"/>
+      <c r="L216" s="27"/>
+      <c r="M216" s="27"/>
+      <c r="N216" s="27"/>
+      <c r="O216" s="27"/>
+      <c r="P216" s="27"/>
+      <c r="Q216" s="32">
+        <v>189</v>
+      </c>
     </row>
     <row r="217" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J217" s="24"/>
-      <c r="Q217" s="26"/>
+      <c r="A217" s="27">
+        <v>216</v>
+      </c>
+      <c r="B217" s="27">
+        <v>1</v>
+      </c>
+      <c r="C217" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="D217" s="27"/>
+      <c r="E217" s="27"/>
+      <c r="F217" s="27"/>
+      <c r="G217" s="27"/>
+      <c r="H217" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>450</v>
+      </c>
+      <c r="I217" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>450</v>
+      </c>
+      <c r="J217" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K217" s="27"/>
+      <c r="L217" s="27"/>
+      <c r="M217" s="27"/>
+      <c r="N217" s="27"/>
+      <c r="O217" s="27"/>
+      <c r="P217" s="27"/>
+      <c r="Q217" s="32">
+        <v>190</v>
+      </c>
     </row>
     <row r="218" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J218" s="24"/>
@@ -8387,7 +8705,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
+      <selection pane="bottomLeft" activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17066,76 +17384,388 @@
       </c>
     </row>
     <row r="184" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="23"/>
-      <c r="B184" s="24"/>
-      <c r="C184" s="23"/>
-      <c r="D184" s="25"/>
-      <c r="F184" s="23"/>
-      <c r="G184" s="24"/>
-      <c r="H184" s="23"/>
+      <c r="A184" s="23">
+        <v>183</v>
+      </c>
+      <c r="B184" s="29">
+        <v>6</v>
+      </c>
+      <c r="C184" s="30">
+        <v>51</v>
+      </c>
+      <c r="D184" s="31"/>
+      <c r="E184" s="27">
+        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C184,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="F184" s="30">
+        <f t="shared" ref="F184:F191" si="10">1/E184</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G184" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H184" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B184,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C184,activity!A:A,0)),"")</f>
+        <v>蓝灯鱼+临时活动</v>
+      </c>
+      <c r="I184" s="27">
+        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C184,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="J184" s="27">
+        <v>1</v>
+      </c>
+      <c r="K184" s="27">
+        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L184" s="27">
+        <f t="shared" ref="L184:L191" si="11">I184</f>
+        <v>30</v>
+      </c>
+      <c r="M184" s="27">
+        <v>1</v>
+      </c>
+      <c r="N184" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="23"/>
-      <c r="B185" s="24"/>
-      <c r="C185" s="23"/>
-      <c r="D185" s="25"/>
-      <c r="F185" s="23"/>
-      <c r="G185" s="24"/>
-      <c r="H185" s="23"/>
+      <c r="A185" s="23">
+        <v>184</v>
+      </c>
+      <c r="B185" s="29">
+        <v>7</v>
+      </c>
+      <c r="C185" s="30">
+        <v>51</v>
+      </c>
+      <c r="D185" s="31"/>
+      <c r="E185" s="27">
+        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C185,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="F185" s="30">
+        <f t="shared" si="10"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G185" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H185" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B185,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C185,activity!A:A,0)),"")</f>
+        <v>红杉鱼+临时活动</v>
+      </c>
+      <c r="I185" s="27">
+        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C185,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="J185" s="27">
+        <v>1</v>
+      </c>
+      <c r="K185" s="27">
+        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L185" s="27">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="M185" s="27">
+        <v>1</v>
+      </c>
+      <c r="N185" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="23"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="23"/>
-      <c r="D186" s="25"/>
-      <c r="F186" s="23"/>
-      <c r="G186" s="24"/>
-      <c r="H186" s="23"/>
+      <c r="A186" s="23">
+        <v>185</v>
+      </c>
+      <c r="B186" s="29">
+        <v>8</v>
+      </c>
+      <c r="C186" s="30">
+        <v>51</v>
+      </c>
+      <c r="D186" s="31"/>
+      <c r="E186" s="27">
+        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C186,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="F186" s="30">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="G186" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H186" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B186,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C186,activity!A:A,0)),"")</f>
+        <v>海龟+临时活动</v>
+      </c>
+      <c r="I186" s="27">
+        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C186,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="J186" s="27">
+        <v>1</v>
+      </c>
+      <c r="K186" s="27">
+        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L186" s="27">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="M186" s="27">
+        <v>1</v>
+      </c>
+      <c r="N186" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="23"/>
-      <c r="B187" s="24"/>
-      <c r="C187" s="23"/>
-      <c r="D187" s="25"/>
-      <c r="F187" s="23"/>
-      <c r="G187" s="24"/>
-      <c r="H187" s="23"/>
+      <c r="A187" s="23">
+        <v>186</v>
+      </c>
+      <c r="B187" s="29">
+        <v>9</v>
+      </c>
+      <c r="C187" s="30">
+        <v>51</v>
+      </c>
+      <c r="D187" s="31"/>
+      <c r="E187" s="27">
+        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C187,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="F187" s="30">
+        <f t="shared" si="10"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G187" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H187" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B187,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C187,activity!A:A,0)),"")</f>
+        <v>灯笼鱼+临时活动</v>
+      </c>
+      <c r="I187" s="27">
+        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C187,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="J187" s="27">
+        <v>1</v>
+      </c>
+      <c r="K187" s="27">
+        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L187" s="27">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="M187" s="27">
+        <v>1</v>
+      </c>
+      <c r="N187" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="23"/>
-      <c r="B188" s="24"/>
-      <c r="C188" s="23"/>
-      <c r="D188" s="25"/>
-      <c r="F188" s="23"/>
-      <c r="G188" s="24"/>
-      <c r="H188" s="23"/>
+      <c r="A188" s="23">
+        <v>187</v>
+      </c>
+      <c r="B188" s="29">
+        <v>10</v>
+      </c>
+      <c r="C188" s="30">
+        <v>51</v>
+      </c>
+      <c r="D188" s="31"/>
+      <c r="E188" s="27">
+        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C188,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="F188" s="30">
+        <f t="shared" si="10"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="G188" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H188" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B188,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C188,activity!A:A,0)),"")</f>
+        <v>魔鬼鱼+临时活动</v>
+      </c>
+      <c r="I188" s="27">
+        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C188,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="J188" s="27">
+        <v>1</v>
+      </c>
+      <c r="K188" s="27">
+        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L188" s="27">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="M188" s="27">
+        <v>1</v>
+      </c>
+      <c r="N188" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="23"/>
-      <c r="B189" s="24"/>
-      <c r="C189" s="23"/>
-      <c r="D189" s="25"/>
-      <c r="F189" s="23"/>
-      <c r="G189" s="24"/>
-      <c r="H189" s="23"/>
+      <c r="A189" s="23">
+        <v>188</v>
+      </c>
+      <c r="B189" s="29">
+        <v>35</v>
+      </c>
+      <c r="C189" s="30">
+        <v>48</v>
+      </c>
+      <c r="D189" s="31"/>
+      <c r="E189" s="27">
+        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C189,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="F189" s="30">
+        <f t="shared" si="10"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G189" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H189" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B189,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C189,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I189" s="27">
+        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C189,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="J189" s="27">
+        <v>1</v>
+      </c>
+      <c r="K189" s="27">
+        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L189" s="27">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="M189" s="27">
+        <v>1</v>
+      </c>
+      <c r="N189" s="27">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="23"/>
-      <c r="B190" s="24"/>
-      <c r="C190" s="23"/>
-      <c r="D190" s="25"/>
-      <c r="F190" s="23"/>
-      <c r="G190" s="24"/>
-      <c r="H190" s="23"/>
+      <c r="A190" s="23">
+        <v>189</v>
+      </c>
+      <c r="B190" s="29">
+        <v>35</v>
+      </c>
+      <c r="C190" s="30">
+        <v>49</v>
+      </c>
+      <c r="D190" s="31"/>
+      <c r="E190" s="27">
+        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C190,activity!A:A,0)),0)</f>
+        <v>350</v>
+      </c>
+      <c r="F190" s="30">
+        <f t="shared" si="10"/>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="G190" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H190" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B190,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C190,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I190" s="27">
+        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C190,activity!A:A,0)),0)</f>
+        <v>350</v>
+      </c>
+      <c r="J190" s="27">
+        <v>1</v>
+      </c>
+      <c r="K190" s="27">
+        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L190" s="27">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+      <c r="M190" s="27">
+        <v>1</v>
+      </c>
+      <c r="N190" s="27">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="23"/>
-      <c r="B191" s="24"/>
-      <c r="C191" s="23"/>
-      <c r="D191" s="25"/>
-      <c r="F191" s="23"/>
-      <c r="G191" s="24"/>
-      <c r="H191" s="23"/>
+      <c r="A191" s="23">
+        <v>190</v>
+      </c>
+      <c r="B191" s="29">
+        <v>35</v>
+      </c>
+      <c r="C191" s="30">
+        <v>50</v>
+      </c>
+      <c r="D191" s="31"/>
+      <c r="E191" s="27">
+        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C191,activity!A:A,0)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="F191" s="30">
+        <f t="shared" si="10"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="G191" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H191" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B191,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C191,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I191" s="27">
+        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C191,activity!A:A,0)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="J191" s="27">
+        <v>1</v>
+      </c>
+      <c r="K191" s="27">
+        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L191" s="27">
+        <f t="shared" si="11"/>
+        <v>450</v>
+      </c>
+      <c r="M191" s="27">
+        <v>1</v>
+      </c>
+      <c r="N191" s="27">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="23"/>
@@ -17293,8 +17923,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18571,51 +19201,127 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="22">
+        <v>48</v>
+      </c>
+      <c r="B49" s="27">
+        <v>9</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="D49" s="28">
+        <v>0</v>
+      </c>
+      <c r="E49" s="28">
+        <v>1</v>
+      </c>
+      <c r="F49" s="27">
+        <v>250</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22">
+        <v>49</v>
+      </c>
+      <c r="B50" s="27">
+        <v>9</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="D50" s="28">
+        <v>0</v>
+      </c>
+      <c r="E50" s="28">
+        <v>1</v>
+      </c>
+      <c r="F50" s="27">
+        <v>350</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="22">
+        <v>50</v>
+      </c>
+      <c r="B51" s="27">
+        <v>9</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D51" s="28">
+        <v>0</v>
+      </c>
+      <c r="E51" s="28">
+        <v>1</v>
+      </c>
+      <c r="F51" s="27">
+        <v>450</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="22">
+        <v>51</v>
+      </c>
+      <c r="B52" s="27">
+        <v>9</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="D52" s="28">
+        <v>1</v>
+      </c>
+      <c r="E52" s="28">
+        <v>1</v>
+      </c>
+      <c r="F52" s="27">
+        <v>10</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>

--- a/config_2.9/fish_2d_fish_server.xlsx
+++ b/config_2.9/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="441">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1715,36 +1715,143 @@
     <t>182,</t>
   </si>
   <si>
-    <t>0,0,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,0,0.01,</t>
   </si>
   <si>
-    <t>0,0,0.1,0.2</t>
+    <t>活动boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.3,0.4</t>
-  </si>
-  <si>
-    <t>活动boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0.2,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0.3,0.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.4,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0.4,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,0.4,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,0.4,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>183,</t>
+  </si>
+  <si>
+    <t>184,</t>
+  </si>
+  <si>
+    <t>185,</t>
+  </si>
+  <si>
+    <t>186,</t>
+  </si>
+  <si>
+    <t>187,</t>
+  </si>
+  <si>
+    <t>188,</t>
+  </si>
+  <si>
+    <t>189,</t>
+  </si>
+  <si>
+    <t>190,</t>
+  </si>
+  <si>
+    <t>191,</t>
+  </si>
+  <si>
+    <t>192,</t>
+  </si>
+  <si>
+    <t>193,</t>
+  </si>
+  <si>
+    <t>194,</t>
+  </si>
+  <si>
+    <t>195,</t>
+  </si>
+  <si>
+    <t>196,</t>
+  </si>
+  <si>
+    <t>197,</t>
+  </si>
+  <si>
+    <t>198,</t>
+  </si>
+  <si>
+    <t>199,</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>201,</t>
+  </si>
+  <si>
+    <t>202,</t>
+  </si>
+  <si>
+    <t>203,</t>
+  </si>
+  <si>
+    <t>204,</t>
+  </si>
+  <si>
+    <t>205,</t>
+  </si>
+  <si>
+    <t>206,</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1909,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1818,6 +1925,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,7 +1974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1929,6 +2042,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2213,10 +2342,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W209"/>
+  <dimension ref="A1:W233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="F197" sqref="F197"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="N227" sqref="N227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8025,11 +8154,11 @@
       <c r="G207" s="17"/>
       <c r="H207" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="I207" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J207" s="16">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!K:K),0),)</f>
@@ -8061,11 +8190,11 @@
       <c r="G208" s="17"/>
       <c r="H208" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="I208" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="J208" s="16">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!K:K),0),)</f>
@@ -8097,11 +8226,11 @@
       <c r="G209" s="17"/>
       <c r="H209" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="I209" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="J209" s="16">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!K:K),0),)</f>
@@ -8115,6 +8244,870 @@
       <c r="P209" s="17"/>
       <c r="Q209" s="21">
         <v>182</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A210" s="27">
+        <v>209</v>
+      </c>
+      <c r="B210" s="27">
+        <v>1</v>
+      </c>
+      <c r="C210" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="27"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="I210" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="J210" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K210" s="27"/>
+      <c r="L210" s="27"/>
+      <c r="M210" s="27"/>
+      <c r="N210" s="27"/>
+      <c r="O210" s="27"/>
+      <c r="P210" s="27"/>
+      <c r="Q210" s="32">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A211" s="27">
+        <v>210</v>
+      </c>
+      <c r="B211" s="27">
+        <v>1</v>
+      </c>
+      <c r="C211" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="D211" s="27"/>
+      <c r="E211" s="27"/>
+      <c r="F211" s="27"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="I211" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="J211" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K211" s="27"/>
+      <c r="L211" s="27"/>
+      <c r="M211" s="27"/>
+      <c r="N211" s="27"/>
+      <c r="O211" s="27"/>
+      <c r="P211" s="27"/>
+      <c r="Q211" s="32">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A212" s="27">
+        <v>211</v>
+      </c>
+      <c r="B212" s="27">
+        <v>1</v>
+      </c>
+      <c r="C212" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="27"/>
+      <c r="G212" s="27"/>
+      <c r="H212" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="I212" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="J212" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K212" s="27"/>
+      <c r="L212" s="27"/>
+      <c r="M212" s="27"/>
+      <c r="N212" s="27"/>
+      <c r="O212" s="27"/>
+      <c r="P212" s="27"/>
+      <c r="Q212" s="32">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A213" s="27">
+        <v>212</v>
+      </c>
+      <c r="B213" s="27">
+        <v>1</v>
+      </c>
+      <c r="C213" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="27"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="I213" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="J213" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K213" s="27"/>
+      <c r="L213" s="27"/>
+      <c r="M213" s="27"/>
+      <c r="N213" s="27"/>
+      <c r="O213" s="27"/>
+      <c r="P213" s="27"/>
+      <c r="Q213" s="32">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A214" s="27">
+        <v>213</v>
+      </c>
+      <c r="B214" s="27">
+        <v>1</v>
+      </c>
+      <c r="C214" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="27"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="I214" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="J214" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K214" s="27"/>
+      <c r="L214" s="27"/>
+      <c r="M214" s="27"/>
+      <c r="N214" s="27"/>
+      <c r="O214" s="27"/>
+      <c r="P214" s="27"/>
+      <c r="Q214" s="32">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A215" s="27">
+        <v>214</v>
+      </c>
+      <c r="B215" s="27">
+        <v>1</v>
+      </c>
+      <c r="C215" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="D215" s="27"/>
+      <c r="E215" s="27"/>
+      <c r="F215" s="27"/>
+      <c r="G215" s="27"/>
+      <c r="H215" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="I215" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="J215" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K215" s="27"/>
+      <c r="L215" s="27"/>
+      <c r="M215" s="27"/>
+      <c r="N215" s="27"/>
+      <c r="O215" s="27"/>
+      <c r="P215" s="27"/>
+      <c r="Q215" s="32">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A216" s="27">
+        <v>215</v>
+      </c>
+      <c r="B216" s="27">
+        <v>1</v>
+      </c>
+      <c r="C216" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="27"/>
+      <c r="G216" s="27"/>
+      <c r="H216" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>350</v>
+      </c>
+      <c r="I216" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>350</v>
+      </c>
+      <c r="J216" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K216" s="27"/>
+      <c r="L216" s="27"/>
+      <c r="M216" s="27"/>
+      <c r="N216" s="27"/>
+      <c r="O216" s="27"/>
+      <c r="P216" s="27"/>
+      <c r="Q216" s="32">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A217" s="27">
+        <v>216</v>
+      </c>
+      <c r="B217" s="27">
+        <v>1</v>
+      </c>
+      <c r="C217" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="D217" s="27"/>
+      <c r="E217" s="27"/>
+      <c r="F217" s="27"/>
+      <c r="G217" s="27"/>
+      <c r="H217" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>450</v>
+      </c>
+      <c r="I217" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>450</v>
+      </c>
+      <c r="J217" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K217" s="27"/>
+      <c r="L217" s="27"/>
+      <c r="M217" s="27"/>
+      <c r="N217" s="27"/>
+      <c r="O217" s="27"/>
+      <c r="P217" s="27"/>
+      <c r="Q217" s="32">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A218" s="17">
+        <v>217</v>
+      </c>
+      <c r="B218" s="17">
+        <v>1</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="D218" s="17"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="17"/>
+      <c r="H218" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W218,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="I218" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W218,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="J218" s="16">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W218,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K218" s="17"/>
+      <c r="L218" s="17"/>
+      <c r="M218" s="17"/>
+      <c r="N218" s="17"/>
+      <c r="O218" s="17"/>
+      <c r="P218" s="17"/>
+      <c r="Q218" s="21">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A219" s="17">
+        <v>218</v>
+      </c>
+      <c r="B219" s="17">
+        <v>1</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="D219" s="17"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W219,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="I219" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W219,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="J219" s="16">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W219,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K219" s="17"/>
+      <c r="L219" s="17"/>
+      <c r="M219" s="17"/>
+      <c r="N219" s="17"/>
+      <c r="O219" s="17"/>
+      <c r="P219" s="17"/>
+      <c r="Q219" s="21">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A220" s="17">
+        <v>219</v>
+      </c>
+      <c r="B220" s="17">
+        <v>1</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="D220" s="17"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W220,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="I220" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W220,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="J220" s="16">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W220,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K220" s="17"/>
+      <c r="L220" s="17"/>
+      <c r="M220" s="17"/>
+      <c r="N220" s="17"/>
+      <c r="O220" s="17"/>
+      <c r="P220" s="17"/>
+      <c r="Q220" s="21">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A221" s="17">
+        <v>220</v>
+      </c>
+      <c r="B221" s="17">
+        <v>1</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W221,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="I221" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W221,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="J221" s="16">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W221,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K221" s="17"/>
+      <c r="L221" s="17"/>
+      <c r="M221" s="17"/>
+      <c r="N221" s="17"/>
+      <c r="O221" s="17"/>
+      <c r="P221" s="17"/>
+      <c r="Q221" s="21">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A222" s="17">
+        <v>221</v>
+      </c>
+      <c r="B222" s="17">
+        <v>1</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="D222" s="17"/>
+      <c r="E222" s="17"/>
+      <c r="F222" s="17"/>
+      <c r="G222" s="17"/>
+      <c r="H222" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W222,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="I222" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W222,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="J222" s="16">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W222,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K222" s="17"/>
+      <c r="L222" s="17"/>
+      <c r="M222" s="17"/>
+      <c r="N222" s="17"/>
+      <c r="O222" s="17"/>
+      <c r="P222" s="17"/>
+      <c r="Q222" s="21">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A223" s="17">
+        <v>222</v>
+      </c>
+      <c r="B223" s="17">
+        <v>1</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="D223" s="17"/>
+      <c r="E223" s="17"/>
+      <c r="F223" s="17"/>
+      <c r="G223" s="17"/>
+      <c r="H223" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W223,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="I223" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W223,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="J223" s="16">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W223,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K223" s="17"/>
+      <c r="L223" s="17"/>
+      <c r="M223" s="17"/>
+      <c r="N223" s="17"/>
+      <c r="O223" s="17"/>
+      <c r="P223" s="17"/>
+      <c r="Q223" s="21">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A224" s="17">
+        <v>223</v>
+      </c>
+      <c r="B224" s="17">
+        <v>1</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="D224" s="17"/>
+      <c r="E224" s="17"/>
+      <c r="F224" s="17"/>
+      <c r="G224" s="17"/>
+      <c r="H224" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W224,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>350</v>
+      </c>
+      <c r="I224" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W224,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>350</v>
+      </c>
+      <c r="J224" s="16">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W224,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K224" s="17"/>
+      <c r="L224" s="17"/>
+      <c r="M224" s="17"/>
+      <c r="N224" s="17"/>
+      <c r="O224" s="17"/>
+      <c r="P224" s="17"/>
+      <c r="Q224" s="21">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A225" s="17">
+        <v>224</v>
+      </c>
+      <c r="B225" s="17">
+        <v>1</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="D225" s="17"/>
+      <c r="E225" s="17"/>
+      <c r="F225" s="17"/>
+      <c r="G225" s="17"/>
+      <c r="H225" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W225,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>450</v>
+      </c>
+      <c r="I225" s="17">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W225,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>450</v>
+      </c>
+      <c r="J225" s="16">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W225,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K225" s="17"/>
+      <c r="L225" s="17"/>
+      <c r="M225" s="17"/>
+      <c r="N225" s="17"/>
+      <c r="O225" s="17"/>
+      <c r="P225" s="17"/>
+      <c r="Q225" s="21">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A226" s="27">
+        <v>225</v>
+      </c>
+      <c r="B226" s="27">
+        <v>1</v>
+      </c>
+      <c r="C226" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="D226" s="27"/>
+      <c r="E226" s="27"/>
+      <c r="F226" s="27"/>
+      <c r="G226" s="27"/>
+      <c r="H226" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W226,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="I226" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W226,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="J226" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W226,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K226" s="27"/>
+      <c r="L226" s="27"/>
+      <c r="M226" s="27"/>
+      <c r="N226" s="27"/>
+      <c r="O226" s="27"/>
+      <c r="P226" s="27"/>
+      <c r="Q226" s="32">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A227" s="27">
+        <v>226</v>
+      </c>
+      <c r="B227" s="27">
+        <v>1</v>
+      </c>
+      <c r="C227" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D227" s="27"/>
+      <c r="E227" s="27"/>
+      <c r="F227" s="27"/>
+      <c r="G227" s="27"/>
+      <c r="H227" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q227,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R227,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S227,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T227,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U227,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V227,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W227,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="I227" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q227,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R227,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S227,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T227,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U227,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V227,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W227,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="J227" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q227,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R227,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S227,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T227,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U227,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V227,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W227,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K227" s="27"/>
+      <c r="L227" s="27"/>
+      <c r="M227" s="27"/>
+      <c r="N227" s="27"/>
+      <c r="O227" s="27"/>
+      <c r="P227" s="27"/>
+      <c r="Q227" s="32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A228" s="27">
+        <v>227</v>
+      </c>
+      <c r="B228" s="27">
+        <v>1</v>
+      </c>
+      <c r="C228" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="D228" s="27"/>
+      <c r="E228" s="27"/>
+      <c r="F228" s="27"/>
+      <c r="G228" s="27"/>
+      <c r="H228" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q228,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R228,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S228,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T228,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U228,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V228,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W228,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="I228" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q228,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R228,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S228,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T228,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U228,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V228,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W228,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="J228" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q228,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R228,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S228,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T228,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U228,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V228,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W228,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K228" s="27"/>
+      <c r="L228" s="27"/>
+      <c r="M228" s="27"/>
+      <c r="N228" s="27"/>
+      <c r="O228" s="27"/>
+      <c r="P228" s="27"/>
+      <c r="Q228" s="32">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A229" s="27">
+        <v>228</v>
+      </c>
+      <c r="B229" s="27">
+        <v>1</v>
+      </c>
+      <c r="C229" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="D229" s="27"/>
+      <c r="E229" s="27"/>
+      <c r="F229" s="27"/>
+      <c r="G229" s="27"/>
+      <c r="H229" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q229,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R229,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S229,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T229,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U229,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V229,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W229,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="I229" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q229,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R229,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S229,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T229,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U229,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V229,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W229,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="J229" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q229,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R229,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S229,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T229,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U229,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V229,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W229,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K229" s="27"/>
+      <c r="L229" s="27"/>
+      <c r="M229" s="27"/>
+      <c r="N229" s="27"/>
+      <c r="O229" s="27"/>
+      <c r="P229" s="27"/>
+      <c r="Q229" s="32">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A230" s="27">
+        <v>229</v>
+      </c>
+      <c r="B230" s="27">
+        <v>1</v>
+      </c>
+      <c r="C230" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="D230" s="27"/>
+      <c r="E230" s="27"/>
+      <c r="F230" s="27"/>
+      <c r="G230" s="27"/>
+      <c r="H230" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q230,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R230,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S230,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T230,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U230,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V230,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W230,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="I230" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q230,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R230,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S230,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T230,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U230,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V230,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W230,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="J230" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q230,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R230,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S230,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T230,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U230,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V230,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W230,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K230" s="27"/>
+      <c r="L230" s="27"/>
+      <c r="M230" s="27"/>
+      <c r="N230" s="27"/>
+      <c r="O230" s="27"/>
+      <c r="P230" s="27"/>
+      <c r="Q230" s="32">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A231" s="27">
+        <v>230</v>
+      </c>
+      <c r="B231" s="27">
+        <v>1</v>
+      </c>
+      <c r="C231" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="D231" s="27"/>
+      <c r="E231" s="27"/>
+      <c r="F231" s="27"/>
+      <c r="G231" s="27"/>
+      <c r="H231" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q231,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R231,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S231,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T231,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U231,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V231,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W231,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="I231" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q231,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R231,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S231,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T231,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U231,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V231,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W231,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="J231" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q231,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R231,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S231,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T231,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U231,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V231,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W231,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K231" s="27"/>
+      <c r="L231" s="27"/>
+      <c r="M231" s="27"/>
+      <c r="N231" s="27"/>
+      <c r="O231" s="27"/>
+      <c r="P231" s="27"/>
+      <c r="Q231" s="32">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A232" s="27">
+        <v>231</v>
+      </c>
+      <c r="B232" s="27">
+        <v>1</v>
+      </c>
+      <c r="C232" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="D232" s="27"/>
+      <c r="E232" s="27"/>
+      <c r="F232" s="27"/>
+      <c r="G232" s="27"/>
+      <c r="H232" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q232,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R232,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S232,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T232,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U232,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V232,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W232,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>350</v>
+      </c>
+      <c r="I232" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q232,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R232,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S232,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T232,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U232,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V232,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W232,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>350</v>
+      </c>
+      <c r="J232" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q232,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R232,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S232,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T232,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U232,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V232,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W232,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K232" s="27"/>
+      <c r="L232" s="27"/>
+      <c r="M232" s="27"/>
+      <c r="N232" s="27"/>
+      <c r="O232" s="27"/>
+      <c r="P232" s="27"/>
+      <c r="Q232" s="32">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A233" s="27">
+        <v>232</v>
+      </c>
+      <c r="B233" s="27">
+        <v>1</v>
+      </c>
+      <c r="C233" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="D233" s="27"/>
+      <c r="E233" s="27"/>
+      <c r="F233" s="27"/>
+      <c r="G233" s="27"/>
+      <c r="H233" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q233,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R233,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S233,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T233,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U233,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V233,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W233,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>450</v>
+      </c>
+      <c r="I233" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q233,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R233,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S233,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T233,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U233,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V233,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W233,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>450</v>
+      </c>
+      <c r="J233" s="30">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q233,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R233,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S233,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T233,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U233,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V233,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W233,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K233" s="27"/>
+      <c r="L233" s="27"/>
+      <c r="M233" s="27"/>
+      <c r="N233" s="27"/>
+      <c r="O233" s="27"/>
+      <c r="P233" s="27"/>
+      <c r="Q233" s="32">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -8207,7 +9200,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H145 H149 H151:H209">
+  <conditionalFormatting sqref="H2:H145 H149 H151:H233">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -8218,7 +9211,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I145 I149 I151:I209">
+  <conditionalFormatting sqref="I2:I145 I149 I151:I233">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -8229,7 +9222,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J145 J149 J151:J209">
+  <conditionalFormatting sqref="J2:J145 J149 J151:J233">
     <cfRule type="iconSet" priority="23">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -8300,11 +9293,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H182" sqref="H182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K183" sqref="K183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16599,7 +17592,7 @@
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A176" s="19">
+      <c r="A176" s="23">
         <v>175</v>
       </c>
       <c r="B176" s="16">
@@ -16647,7 +17640,7 @@
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A177" s="19">
+      <c r="A177" s="23">
         <v>176</v>
       </c>
       <c r="B177" s="16">
@@ -16695,7 +17688,7 @@
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A178" s="19">
+      <c r="A178" s="23">
         <v>177</v>
       </c>
       <c r="B178" s="16">
@@ -16743,7 +17736,7 @@
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A179" s="19">
+      <c r="A179" s="23">
         <v>178</v>
       </c>
       <c r="B179" s="16">
@@ -16791,7 +17784,7 @@
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A180" s="19">
+      <c r="A180" s="23">
         <v>179</v>
       </c>
       <c r="B180" s="16">
@@ -16839,7 +17832,7 @@
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A181" s="19">
+      <c r="A181" s="23">
         <v>180</v>
       </c>
       <c r="B181" s="16">
@@ -16851,11 +17844,11 @@
       <c r="D181" s="20"/>
       <c r="E181" s="17">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F181" s="19">
         <f t="shared" si="8"/>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G181" s="16" t="s">
         <v>81</v>
@@ -16866,7 +17859,7 @@
       </c>
       <c r="I181" s="17">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J181" s="17">
         <v>1</v>
@@ -16877,7 +17870,7 @@
       </c>
       <c r="L181" s="17">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M181" s="17">
         <v>1</v>
@@ -16887,7 +17880,7 @@
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A182" s="19">
+      <c r="A182" s="23">
         <v>181</v>
       </c>
       <c r="B182" s="16">
@@ -16899,11 +17892,11 @@
       <c r="D182" s="20"/>
       <c r="E182" s="17">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F182" s="19">
         <f t="shared" si="8"/>
-        <v>4.0000000000000001E-3</v>
+        <v>2.8571428571428571E-3</v>
       </c>
       <c r="G182" s="16" t="s">
         <v>81</v>
@@ -16914,7 +17907,7 @@
       </c>
       <c r="I182" s="17">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="J182" s="17">
         <v>1</v>
@@ -16925,7 +17918,7 @@
       </c>
       <c r="L182" s="17">
         <f t="shared" si="9"/>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M182" s="17">
         <v>1</v>
@@ -16935,7 +17928,7 @@
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A183" s="19">
+      <c r="A183" s="23">
         <v>182</v>
       </c>
       <c r="B183" s="16">
@@ -16947,11 +17940,11 @@
       <c r="D183" s="20"/>
       <c r="E183" s="17">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="F183" s="19">
         <f t="shared" si="8"/>
-        <v>2.8571428571428571E-3</v>
+        <v>2.2222222222222222E-3</v>
       </c>
       <c r="G183" s="16" t="s">
         <v>81</v>
@@ -16962,7 +17955,7 @@
       </c>
       <c r="I183" s="17">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="J183" s="17">
         <v>1</v>
@@ -16973,12 +17966,1164 @@
       </c>
       <c r="L183" s="17">
         <f t="shared" si="9"/>
+        <v>450</v>
+      </c>
+      <c r="M183" s="17">
+        <v>1</v>
+      </c>
+      <c r="N183" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A184" s="23">
+        <v>183</v>
+      </c>
+      <c r="B184" s="30">
+        <v>6</v>
+      </c>
+      <c r="C184" s="29">
+        <v>51</v>
+      </c>
+      <c r="D184" s="31"/>
+      <c r="E184" s="27">
+        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C184,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="F184" s="29">
+        <f t="shared" ref="F184:F191" si="10">1/E184</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G184" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H184" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B184,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C184,activity!A:A,0)),"")</f>
+        <v>蓝灯鱼+临时活动</v>
+      </c>
+      <c r="I184" s="27">
+        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C184,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="J184" s="27">
+        <v>1</v>
+      </c>
+      <c r="K184" s="27">
+        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L184" s="27">
+        <f t="shared" ref="L184:L191" si="11">I184</f>
+        <v>30</v>
+      </c>
+      <c r="M184" s="27">
+        <v>1</v>
+      </c>
+      <c r="N184" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A185" s="23">
+        <v>184</v>
+      </c>
+      <c r="B185" s="30">
+        <v>7</v>
+      </c>
+      <c r="C185" s="29">
+        <v>51</v>
+      </c>
+      <c r="D185" s="31"/>
+      <c r="E185" s="27">
+        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C185,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="F185" s="29">
+        <f t="shared" si="10"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G185" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H185" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B185,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C185,activity!A:A,0)),"")</f>
+        <v>红杉鱼+临时活动</v>
+      </c>
+      <c r="I185" s="27">
+        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C185,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="J185" s="27">
+        <v>1</v>
+      </c>
+      <c r="K185" s="27">
+        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L185" s="27">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="M185" s="27">
+        <v>1</v>
+      </c>
+      <c r="N185" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A186" s="23">
+        <v>185</v>
+      </c>
+      <c r="B186" s="30">
+        <v>8</v>
+      </c>
+      <c r="C186" s="29">
+        <v>51</v>
+      </c>
+      <c r="D186" s="31"/>
+      <c r="E186" s="27">
+        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C186,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="F186" s="29">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="G186" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H186" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B186,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C186,activity!A:A,0)),"")</f>
+        <v>海龟+临时活动</v>
+      </c>
+      <c r="I186" s="27">
+        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C186,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="J186" s="27">
+        <v>1</v>
+      </c>
+      <c r="K186" s="27">
+        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L186" s="27">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="M186" s="27">
+        <v>1</v>
+      </c>
+      <c r="N186" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A187" s="23">
+        <v>186</v>
+      </c>
+      <c r="B187" s="30">
+        <v>9</v>
+      </c>
+      <c r="C187" s="29">
+        <v>51</v>
+      </c>
+      <c r="D187" s="31"/>
+      <c r="E187" s="27">
+        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C187,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="F187" s="29">
+        <f t="shared" si="10"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G187" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H187" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B187,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C187,activity!A:A,0)),"")</f>
+        <v>灯笼鱼+临时活动</v>
+      </c>
+      <c r="I187" s="27">
+        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C187,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="J187" s="27">
+        <v>1</v>
+      </c>
+      <c r="K187" s="27">
+        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L187" s="27">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="M187" s="27">
+        <v>1</v>
+      </c>
+      <c r="N187" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A188" s="23">
+        <v>187</v>
+      </c>
+      <c r="B188" s="30">
+        <v>10</v>
+      </c>
+      <c r="C188" s="29">
+        <v>51</v>
+      </c>
+      <c r="D188" s="31"/>
+      <c r="E188" s="27">
+        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C188,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="F188" s="29">
+        <f t="shared" si="10"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="G188" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H188" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B188,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C188,activity!A:A,0)),"")</f>
+        <v>魔鬼鱼+临时活动</v>
+      </c>
+      <c r="I188" s="27">
+        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C188,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="J188" s="27">
+        <v>1</v>
+      </c>
+      <c r="K188" s="27">
+        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L188" s="27">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="M188" s="27">
+        <v>1</v>
+      </c>
+      <c r="N188" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A189" s="23">
+        <v>188</v>
+      </c>
+      <c r="B189" s="30">
+        <v>35</v>
+      </c>
+      <c r="C189" s="29">
+        <v>48</v>
+      </c>
+      <c r="D189" s="31"/>
+      <c r="E189" s="27">
+        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C189,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="F189" s="29">
+        <f t="shared" si="10"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G189" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H189" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B189,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C189,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I189" s="27">
+        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C189,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="J189" s="27">
+        <v>1</v>
+      </c>
+      <c r="K189" s="27">
+        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L189" s="27">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="M189" s="27">
+        <v>1</v>
+      </c>
+      <c r="N189" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A190" s="23">
+        <v>189</v>
+      </c>
+      <c r="B190" s="30">
+        <v>35</v>
+      </c>
+      <c r="C190" s="29">
+        <v>49</v>
+      </c>
+      <c r="D190" s="31"/>
+      <c r="E190" s="27">
+        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C190,activity!A:A,0)),0)</f>
         <v>350</v>
       </c>
-      <c r="M183" s="17">
-        <v>1</v>
-      </c>
-      <c r="N183" s="17">
+      <c r="F190" s="29">
+        <f t="shared" si="10"/>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="G190" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H190" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B190,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C190,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I190" s="27">
+        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C190,activity!A:A,0)),0)</f>
+        <v>350</v>
+      </c>
+      <c r="J190" s="27">
+        <v>1</v>
+      </c>
+      <c r="K190" s="27">
+        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L190" s="27">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+      <c r="M190" s="27">
+        <v>1</v>
+      </c>
+      <c r="N190" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A191" s="23">
+        <v>190</v>
+      </c>
+      <c r="B191" s="30">
+        <v>35</v>
+      </c>
+      <c r="C191" s="29">
+        <v>50</v>
+      </c>
+      <c r="D191" s="31"/>
+      <c r="E191" s="27">
+        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C191,activity!A:A,0)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="F191" s="29">
+        <f t="shared" si="10"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="G191" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H191" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B191,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C191,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I191" s="27">
+        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C191,activity!A:A,0)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="J191" s="27">
+        <v>1</v>
+      </c>
+      <c r="K191" s="27">
+        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L191" s="27">
+        <f t="shared" si="11"/>
+        <v>450</v>
+      </c>
+      <c r="M191" s="27">
+        <v>1</v>
+      </c>
+      <c r="N191" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A192" s="23">
+        <v>191</v>
+      </c>
+      <c r="B192" s="16">
+        <v>6</v>
+      </c>
+      <c r="C192" s="19">
+        <v>55</v>
+      </c>
+      <c r="D192" s="20"/>
+      <c r="E192" s="17">
+        <f>LOOKUP(use_fish!B192,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C192,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="F192" s="19">
+        <f t="shared" ref="F192:F199" si="12">1/E192</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G192" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H192" s="19" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B192,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C192,activity!A:A,0)),"")</f>
+        <v>蓝灯鱼+临时活动</v>
+      </c>
+      <c r="I192" s="17">
+        <f>LOOKUP(use_fish!B192,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C192,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="J192" s="17">
+        <v>1</v>
+      </c>
+      <c r="K192" s="17">
+        <f>LOOKUP(use_fish!B192,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L192" s="17">
+        <f t="shared" ref="L192:L199" si="13">I192</f>
+        <v>30</v>
+      </c>
+      <c r="M192" s="17">
+        <v>1</v>
+      </c>
+      <c r="N192" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A193" s="23">
+        <v>192</v>
+      </c>
+      <c r="B193" s="16">
+        <v>7</v>
+      </c>
+      <c r="C193" s="19">
+        <v>55</v>
+      </c>
+      <c r="D193" s="20"/>
+      <c r="E193" s="17">
+        <f>LOOKUP(use_fish!B193,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C193,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="F193" s="19">
+        <f t="shared" si="12"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G193" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H193" s="19" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B193,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C193,activity!A:A,0)),"")</f>
+        <v>红杉鱼+临时活动</v>
+      </c>
+      <c r="I193" s="17">
+        <f>LOOKUP(use_fish!B193,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C193,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="J193" s="17">
+        <v>1</v>
+      </c>
+      <c r="K193" s="17">
+        <f>LOOKUP(use_fish!B193,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L193" s="17">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="M193" s="17">
+        <v>1</v>
+      </c>
+      <c r="N193" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A194" s="23">
+        <v>193</v>
+      </c>
+      <c r="B194" s="16">
+        <v>8</v>
+      </c>
+      <c r="C194" s="19">
+        <v>55</v>
+      </c>
+      <c r="D194" s="20"/>
+      <c r="E194" s="17">
+        <f>LOOKUP(use_fish!B194,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C194,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="F194" s="19">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="G194" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H194" s="19" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B194,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C194,activity!A:A,0)),"")</f>
+        <v>海龟+临时活动</v>
+      </c>
+      <c r="I194" s="17">
+        <f>LOOKUP(use_fish!B194,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C194,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="J194" s="17">
+        <v>1</v>
+      </c>
+      <c r="K194" s="17">
+        <f>LOOKUP(use_fish!B194,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L194" s="17">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="M194" s="17">
+        <v>1</v>
+      </c>
+      <c r="N194" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A195" s="23">
+        <v>194</v>
+      </c>
+      <c r="B195" s="16">
+        <v>9</v>
+      </c>
+      <c r="C195" s="19">
+        <v>55</v>
+      </c>
+      <c r="D195" s="20"/>
+      <c r="E195" s="17">
+        <f>LOOKUP(use_fish!B195,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C195,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="F195" s="19">
+        <f t="shared" si="12"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G195" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H195" s="19" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B195,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C195,activity!A:A,0)),"")</f>
+        <v>灯笼鱼+临时活动</v>
+      </c>
+      <c r="I195" s="17">
+        <f>LOOKUP(use_fish!B195,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C195,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="J195" s="17">
+        <v>1</v>
+      </c>
+      <c r="K195" s="17">
+        <f>LOOKUP(use_fish!B195,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L195" s="17">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="M195" s="17">
+        <v>1</v>
+      </c>
+      <c r="N195" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A196" s="23">
+        <v>195</v>
+      </c>
+      <c r="B196" s="16">
+        <v>10</v>
+      </c>
+      <c r="C196" s="19">
+        <v>55</v>
+      </c>
+      <c r="D196" s="20"/>
+      <c r="E196" s="17">
+        <f>LOOKUP(use_fish!B196,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C196,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="F196" s="19">
+        <f t="shared" si="12"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="G196" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H196" s="19" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B196,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C196,activity!A:A,0)),"")</f>
+        <v>魔鬼鱼+临时活动</v>
+      </c>
+      <c r="I196" s="17">
+        <f>LOOKUP(use_fish!B196,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C196,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="J196" s="17">
+        <v>1</v>
+      </c>
+      <c r="K196" s="17">
+        <f>LOOKUP(use_fish!B196,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L196" s="17">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="M196" s="17">
+        <v>1</v>
+      </c>
+      <c r="N196" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A197" s="23">
+        <v>196</v>
+      </c>
+      <c r="B197" s="16">
+        <v>35</v>
+      </c>
+      <c r="C197" s="19">
+        <v>52</v>
+      </c>
+      <c r="D197" s="20"/>
+      <c r="E197" s="17">
+        <f>LOOKUP(use_fish!B197,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C197,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="F197" s="19">
+        <f t="shared" si="12"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G197" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H197" s="19" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B197,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C197,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I197" s="17">
+        <f>LOOKUP(use_fish!B197,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C197,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="J197" s="17">
+        <v>1</v>
+      </c>
+      <c r="K197" s="17">
+        <f>LOOKUP(use_fish!B197,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L197" s="17">
+        <f t="shared" si="13"/>
+        <v>250</v>
+      </c>
+      <c r="M197" s="17">
+        <v>1</v>
+      </c>
+      <c r="N197" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A198" s="23">
+        <v>197</v>
+      </c>
+      <c r="B198" s="16">
+        <v>35</v>
+      </c>
+      <c r="C198" s="19">
+        <v>53</v>
+      </c>
+      <c r="D198" s="20"/>
+      <c r="E198" s="17">
+        <f>LOOKUP(use_fish!B198,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C198,activity!A:A,0)),0)</f>
+        <v>350</v>
+      </c>
+      <c r="F198" s="19">
+        <f t="shared" si="12"/>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="G198" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H198" s="19" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B198,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C198,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I198" s="17">
+        <f>LOOKUP(use_fish!B198,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C198,activity!A:A,0)),0)</f>
+        <v>350</v>
+      </c>
+      <c r="J198" s="17">
+        <v>1</v>
+      </c>
+      <c r="K198" s="17">
+        <f>LOOKUP(use_fish!B198,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L198" s="17">
+        <f t="shared" si="13"/>
+        <v>350</v>
+      </c>
+      <c r="M198" s="17">
+        <v>1</v>
+      </c>
+      <c r="N198" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A199" s="23">
+        <v>198</v>
+      </c>
+      <c r="B199" s="16">
+        <v>35</v>
+      </c>
+      <c r="C199" s="19">
+        <v>54</v>
+      </c>
+      <c r="D199" s="20"/>
+      <c r="E199" s="17">
+        <f>LOOKUP(use_fish!B199,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C199,activity!A:A,0)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="F199" s="19">
+        <f t="shared" si="12"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="G199" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H199" s="19" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B199,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C199,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I199" s="17">
+        <f>LOOKUP(use_fish!B199,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C199,activity!A:A,0)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="J199" s="17">
+        <v>1</v>
+      </c>
+      <c r="K199" s="17">
+        <f>LOOKUP(use_fish!B199,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L199" s="17">
+        <f t="shared" si="13"/>
+        <v>450</v>
+      </c>
+      <c r="M199" s="17">
+        <v>1</v>
+      </c>
+      <c r="N199" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A200" s="23">
+        <v>199</v>
+      </c>
+      <c r="B200" s="30">
+        <v>6</v>
+      </c>
+      <c r="C200" s="29">
+        <v>59</v>
+      </c>
+      <c r="D200" s="31"/>
+      <c r="E200" s="27">
+        <f>LOOKUP(use_fish!B200,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C200,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="F200" s="29">
+        <f t="shared" ref="F200:F207" si="14">1/E200</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G200" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H200" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B200,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C200,activity!A:A,0)),"")</f>
+        <v>蓝灯鱼+临时活动</v>
+      </c>
+      <c r="I200" s="27">
+        <f>LOOKUP(use_fish!B200,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C200,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="J200" s="27">
+        <v>1</v>
+      </c>
+      <c r="K200" s="27">
+        <f>LOOKUP(use_fish!B200,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L200" s="27">
+        <f t="shared" ref="L200:L207" si="15">I200</f>
+        <v>30</v>
+      </c>
+      <c r="M200" s="27">
+        <v>1</v>
+      </c>
+      <c r="N200" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A201" s="23">
+        <v>200</v>
+      </c>
+      <c r="B201" s="30">
+        <v>7</v>
+      </c>
+      <c r="C201" s="29">
+        <v>59</v>
+      </c>
+      <c r="D201" s="31"/>
+      <c r="E201" s="27">
+        <f>LOOKUP(use_fish!B201,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C201,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="F201" s="29">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G201" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H201" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B201,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C201,activity!A:A,0)),"")</f>
+        <v>红杉鱼+临时活动</v>
+      </c>
+      <c r="I201" s="27">
+        <f>LOOKUP(use_fish!B201,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C201,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="J201" s="27">
+        <v>1</v>
+      </c>
+      <c r="K201" s="27">
+        <f>LOOKUP(use_fish!B201,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L201" s="27">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="M201" s="27">
+        <v>1</v>
+      </c>
+      <c r="N201" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A202" s="23">
+        <v>201</v>
+      </c>
+      <c r="B202" s="30">
+        <v>8</v>
+      </c>
+      <c r="C202" s="29">
+        <v>59</v>
+      </c>
+      <c r="D202" s="31"/>
+      <c r="E202" s="27">
+        <f>LOOKUP(use_fish!B202,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C202,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="F202" s="29">
+        <f t="shared" si="14"/>
+        <v>0.02</v>
+      </c>
+      <c r="G202" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H202" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B202,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C202,activity!A:A,0)),"")</f>
+        <v>海龟+临时活动</v>
+      </c>
+      <c r="I202" s="27">
+        <f>LOOKUP(use_fish!B202,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C202,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="J202" s="27">
+        <v>1</v>
+      </c>
+      <c r="K202" s="27">
+        <f>LOOKUP(use_fish!B202,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L202" s="27">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="M202" s="27">
+        <v>1</v>
+      </c>
+      <c r="N202" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A203" s="23">
+        <v>202</v>
+      </c>
+      <c r="B203" s="30">
+        <v>9</v>
+      </c>
+      <c r="C203" s="29">
+        <v>59</v>
+      </c>
+      <c r="D203" s="31"/>
+      <c r="E203" s="27">
+        <f>LOOKUP(use_fish!B203,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C203,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="F203" s="29">
+        <f t="shared" si="14"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G203" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H203" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B203,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C203,activity!A:A,0)),"")</f>
+        <v>灯笼鱼+临时活动</v>
+      </c>
+      <c r="I203" s="27">
+        <f>LOOKUP(use_fish!B203,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C203,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="J203" s="27">
+        <v>1</v>
+      </c>
+      <c r="K203" s="27">
+        <f>LOOKUP(use_fish!B203,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L203" s="27">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="M203" s="27">
+        <v>1</v>
+      </c>
+      <c r="N203" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A204" s="23">
+        <v>203</v>
+      </c>
+      <c r="B204" s="30">
+        <v>10</v>
+      </c>
+      <c r="C204" s="29">
+        <v>59</v>
+      </c>
+      <c r="D204" s="31"/>
+      <c r="E204" s="27">
+        <f>LOOKUP(use_fish!B204,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C204,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="F204" s="29">
+        <f t="shared" si="14"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="G204" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H204" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B204,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C204,activity!A:A,0)),"")</f>
+        <v>魔鬼鱼+临时活动</v>
+      </c>
+      <c r="I204" s="27">
+        <f>LOOKUP(use_fish!B204,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C204,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="J204" s="27">
+        <v>1</v>
+      </c>
+      <c r="K204" s="27">
+        <f>LOOKUP(use_fish!B204,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L204" s="27">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="M204" s="27">
+        <v>1</v>
+      </c>
+      <c r="N204" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A205" s="23">
+        <v>204</v>
+      </c>
+      <c r="B205" s="30">
+        <v>35</v>
+      </c>
+      <c r="C205" s="29">
+        <v>56</v>
+      </c>
+      <c r="D205" s="31"/>
+      <c r="E205" s="27">
+        <f>LOOKUP(use_fish!B205,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C205,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="F205" s="29">
+        <f t="shared" si="14"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G205" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H205" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B205,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C205,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I205" s="27">
+        <f>LOOKUP(use_fish!B205,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C205,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="J205" s="27">
+        <v>1</v>
+      </c>
+      <c r="K205" s="27">
+        <f>LOOKUP(use_fish!B205,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L205" s="27">
+        <f t="shared" si="15"/>
+        <v>250</v>
+      </c>
+      <c r="M205" s="27">
+        <v>1</v>
+      </c>
+      <c r="N205" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A206" s="23">
+        <v>205</v>
+      </c>
+      <c r="B206" s="30">
+        <v>35</v>
+      </c>
+      <c r="C206" s="29">
+        <v>57</v>
+      </c>
+      <c r="D206" s="31"/>
+      <c r="E206" s="27">
+        <f>LOOKUP(use_fish!B206,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C206,activity!A:A,0)),0)</f>
+        <v>350</v>
+      </c>
+      <c r="F206" s="29">
+        <f t="shared" si="14"/>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="G206" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H206" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B206,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C206,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I206" s="27">
+        <f>LOOKUP(use_fish!B206,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C206,activity!A:A,0)),0)</f>
+        <v>350</v>
+      </c>
+      <c r="J206" s="27">
+        <v>1</v>
+      </c>
+      <c r="K206" s="27">
+        <f>LOOKUP(use_fish!B206,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L206" s="27">
+        <f t="shared" si="15"/>
+        <v>350</v>
+      </c>
+      <c r="M206" s="27">
+        <v>1</v>
+      </c>
+      <c r="N206" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A207" s="23">
+        <v>206</v>
+      </c>
+      <c r="B207" s="30">
+        <v>35</v>
+      </c>
+      <c r="C207" s="29">
+        <v>58</v>
+      </c>
+      <c r="D207" s="31"/>
+      <c r="E207" s="27">
+        <f>LOOKUP(use_fish!B207,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C207,activity!A:A,0)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="F207" s="29">
+        <f t="shared" si="14"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="G207" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H207" s="29" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B207,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C207,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I207" s="27">
+        <f>LOOKUP(use_fish!B207,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C207,activity!A:A,0)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="J207" s="27">
+        <v>1</v>
+      </c>
+      <c r="K207" s="27">
+        <f>LOOKUP(use_fish!B207,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L207" s="27">
+        <f t="shared" si="15"/>
+        <v>450</v>
+      </c>
+      <c r="M207" s="27">
+        <v>1</v>
+      </c>
+      <c r="N207" s="27">
         <v>1</v>
       </c>
     </row>
@@ -16992,10 +19137,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18181,7 +20326,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="17">
+      <c r="A45" s="22">
         <v>44</v>
       </c>
       <c r="B45" s="17">
@@ -18197,14 +20342,14 @@
         <v>1</v>
       </c>
       <c r="F45" s="17">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="17">
+      <c r="A46" s="22">
         <v>45</v>
       </c>
       <c r="B46" s="17">
@@ -18220,14 +20365,14 @@
         <v>1</v>
       </c>
       <c r="F46" s="17">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="17">
+      <c r="A47" s="22">
         <v>46</v>
       </c>
       <c r="B47" s="17">
@@ -18243,21 +20388,21 @@
         <v>1</v>
       </c>
       <c r="F47" s="17">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="17">
+      <c r="A48" s="22">
         <v>47</v>
       </c>
       <c r="B48" s="17">
         <v>9</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D48" s="18">
         <v>1</v>
@@ -18276,22 +20421,22 @@
       <c r="A49" s="22">
         <v>48</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="27">
         <v>9</v>
       </c>
-      <c r="C49" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="22">
-        <v>150</v>
-      </c>
-      <c r="G49" s="22" t="s">
+      <c r="C49" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="D49" s="28">
+        <v>0</v>
+      </c>
+      <c r="E49" s="28">
+        <v>1</v>
+      </c>
+      <c r="F49" s="27">
+        <v>250</v>
+      </c>
+      <c r="G49" s="27" t="s">
         <v>132</v>
       </c>
     </row>
@@ -18299,22 +20444,22 @@
       <c r="A50" s="22">
         <v>49</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="27">
         <v>9</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="22">
-        <v>250</v>
-      </c>
-      <c r="G50" s="22" t="s">
+      <c r="C50" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="D50" s="28">
+        <v>0</v>
+      </c>
+      <c r="E50" s="28">
+        <v>1</v>
+      </c>
+      <c r="F50" s="27">
+        <v>350</v>
+      </c>
+      <c r="G50" s="27" t="s">
         <v>132</v>
       </c>
     </row>
@@ -18322,22 +20467,22 @@
       <c r="A51" s="22">
         <v>50</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="27">
         <v>9</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="22">
-        <v>350</v>
-      </c>
-      <c r="G51" s="22" t="s">
+      <c r="C51" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D51" s="28">
+        <v>0</v>
+      </c>
+      <c r="E51" s="28">
+        <v>1</v>
+      </c>
+      <c r="F51" s="27">
+        <v>450</v>
+      </c>
+      <c r="G51" s="27" t="s">
         <v>132</v>
       </c>
     </row>
@@ -18345,22 +20490,206 @@
       <c r="A52" s="22">
         <v>51</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="27">
         <v>9</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-      <c r="E52" s="23">
-        <v>1</v>
-      </c>
-      <c r="F52" s="22">
+      <c r="C52" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="D52" s="28">
+        <v>1</v>
+      </c>
+      <c r="E52" s="28">
+        <v>1</v>
+      </c>
+      <c r="F52" s="27">
         <v>10</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="22">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17">
+        <v>9</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="D53" s="18">
+        <v>0</v>
+      </c>
+      <c r="E53" s="18">
+        <v>1</v>
+      </c>
+      <c r="F53" s="17">
+        <v>250</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="22">
+        <v>53</v>
+      </c>
+      <c r="B54" s="17">
+        <v>9</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D54" s="18">
+        <v>0</v>
+      </c>
+      <c r="E54" s="18">
+        <v>1</v>
+      </c>
+      <c r="F54" s="17">
+        <v>350</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="22">
+        <v>54</v>
+      </c>
+      <c r="B55" s="17">
+        <v>9</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="D55" s="18">
+        <v>0</v>
+      </c>
+      <c r="E55" s="18">
+        <v>1</v>
+      </c>
+      <c r="F55" s="17">
+        <v>450</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="22">
+        <v>55</v>
+      </c>
+      <c r="B56" s="17">
+        <v>9</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="D56" s="18">
+        <v>1</v>
+      </c>
+      <c r="E56" s="18">
+        <v>1</v>
+      </c>
+      <c r="F56" s="17">
+        <v>10</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="22">
+        <v>56</v>
+      </c>
+      <c r="B57" s="27">
+        <v>9</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="D57" s="28">
+        <v>0</v>
+      </c>
+      <c r="E57" s="28">
+        <v>1</v>
+      </c>
+      <c r="F57" s="27">
+        <v>250</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="22">
+        <v>57</v>
+      </c>
+      <c r="B58" s="27">
+        <v>9</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="D58" s="28">
+        <v>0</v>
+      </c>
+      <c r="E58" s="28">
+        <v>1</v>
+      </c>
+      <c r="F58" s="27">
+        <v>350</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="22">
+        <v>58</v>
+      </c>
+      <c r="B59" s="27">
+        <v>9</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="D59" s="28">
+        <v>0</v>
+      </c>
+      <c r="E59" s="28">
+        <v>1</v>
+      </c>
+      <c r="F59" s="27">
+        <v>450</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="22">
+        <v>59</v>
+      </c>
+      <c r="B60" s="27">
+        <v>9</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="D60" s="28">
+        <v>1</v>
+      </c>
+      <c r="E60" s="28">
+        <v>1</v>
+      </c>
+      <c r="F60" s="27">
+        <v>10</v>
+      </c>
+      <c r="G60" s="27" t="s">
         <v>132</v>
       </c>
     </row>
@@ -19350,7 +21679,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F36" s="16">
         <v>0</v>

--- a/config_2.9/fish_2d_fish_server.xlsx
+++ b/config_2.9/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="405">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1732,126 +1732,6 @@
   <si>
     <t>0,0,0.4,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,0.2,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,0.3,0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,0.4,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,0.01,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3,0.2,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3,0.3,0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3,0.4,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3,0.01,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,0.2,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,0.3,0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,0.4,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,0.01,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>183,</t>
-  </si>
-  <si>
-    <t>184,</t>
-  </si>
-  <si>
-    <t>185,</t>
-  </si>
-  <si>
-    <t>186,</t>
-  </si>
-  <si>
-    <t>187,</t>
-  </si>
-  <si>
-    <t>188,</t>
-  </si>
-  <si>
-    <t>189,</t>
-  </si>
-  <si>
-    <t>190,</t>
-  </si>
-  <si>
-    <t>191,</t>
-  </si>
-  <si>
-    <t>192,</t>
-  </si>
-  <si>
-    <t>193,</t>
-  </si>
-  <si>
-    <t>194,</t>
-  </si>
-  <si>
-    <t>195,</t>
-  </si>
-  <si>
-    <t>196,</t>
-  </si>
-  <si>
-    <t>197,</t>
-  </si>
-  <si>
-    <t>198,</t>
-  </si>
-  <si>
-    <t>199,</t>
-  </si>
-  <si>
-    <t>200,</t>
-  </si>
-  <si>
-    <t>201,</t>
-  </si>
-  <si>
-    <t>202,</t>
-  </si>
-  <si>
-    <t>203,</t>
-  </si>
-  <si>
-    <t>204,</t>
-  </si>
-  <si>
-    <t>205,</t>
-  </si>
-  <si>
-    <t>206,</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +1789,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1925,12 +1805,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1974,7 +1848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2042,22 +1916,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2344,8 +2202,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W233"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="N227" sqref="N227"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="F209" sqref="F209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8246,869 +8104,101 @@
         <v>182</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A210" s="27">
-        <v>209</v>
-      </c>
-      <c r="B210" s="27">
-        <v>1</v>
-      </c>
-      <c r="C210" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="D210" s="27"/>
-      <c r="E210" s="27"/>
-      <c r="F210" s="27"/>
-      <c r="G210" s="27"/>
-      <c r="H210" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>30</v>
-      </c>
-      <c r="I210" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>30</v>
-      </c>
-      <c r="J210" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K210" s="27"/>
-      <c r="L210" s="27"/>
-      <c r="M210" s="27"/>
-      <c r="N210" s="27"/>
-      <c r="O210" s="27"/>
-      <c r="P210" s="27"/>
-      <c r="Q210" s="32">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A211" s="27">
-        <v>210</v>
-      </c>
-      <c r="B211" s="27">
-        <v>1</v>
-      </c>
-      <c r="C211" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="D211" s="27"/>
-      <c r="E211" s="27"/>
-      <c r="F211" s="27"/>
-      <c r="G211" s="27"/>
-      <c r="H211" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>40</v>
-      </c>
-      <c r="I211" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>40</v>
-      </c>
-      <c r="J211" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K211" s="27"/>
-      <c r="L211" s="27"/>
-      <c r="M211" s="27"/>
-      <c r="N211" s="27"/>
-      <c r="O211" s="27"/>
-      <c r="P211" s="27"/>
-      <c r="Q211" s="32">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A212" s="27">
-        <v>211</v>
-      </c>
-      <c r="B212" s="27">
-        <v>1</v>
-      </c>
-      <c r="C212" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="D212" s="27"/>
-      <c r="E212" s="27"/>
-      <c r="F212" s="27"/>
-      <c r="G212" s="27"/>
-      <c r="H212" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>50</v>
-      </c>
-      <c r="I212" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>50</v>
-      </c>
-      <c r="J212" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K212" s="27"/>
-      <c r="L212" s="27"/>
-      <c r="M212" s="27"/>
-      <c r="N212" s="27"/>
-      <c r="O212" s="27"/>
-      <c r="P212" s="27"/>
-      <c r="Q212" s="32">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A213" s="27">
-        <v>212</v>
-      </c>
-      <c r="B213" s="27">
-        <v>1</v>
-      </c>
-      <c r="C213" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="D213" s="27"/>
-      <c r="E213" s="27"/>
-      <c r="F213" s="27"/>
-      <c r="G213" s="27"/>
-      <c r="H213" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="I213" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="J213" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K213" s="27"/>
-      <c r="L213" s="27"/>
-      <c r="M213" s="27"/>
-      <c r="N213" s="27"/>
-      <c r="O213" s="27"/>
-      <c r="P213" s="27"/>
-      <c r="Q213" s="32">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A214" s="27">
-        <v>213</v>
-      </c>
-      <c r="B214" s="27">
-        <v>1</v>
-      </c>
-      <c r="C214" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="D214" s="27"/>
-      <c r="E214" s="27"/>
-      <c r="F214" s="27"/>
-      <c r="G214" s="27"/>
-      <c r="H214" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>70</v>
-      </c>
-      <c r="I214" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>70</v>
-      </c>
-      <c r="J214" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K214" s="27"/>
-      <c r="L214" s="27"/>
-      <c r="M214" s="27"/>
-      <c r="N214" s="27"/>
-      <c r="O214" s="27"/>
-      <c r="P214" s="27"/>
-      <c r="Q214" s="32">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A215" s="27">
-        <v>214</v>
-      </c>
-      <c r="B215" s="27">
-        <v>1</v>
-      </c>
-      <c r="C215" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="D215" s="27"/>
-      <c r="E215" s="27"/>
-      <c r="F215" s="27"/>
-      <c r="G215" s="27"/>
-      <c r="H215" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>250</v>
-      </c>
-      <c r="I215" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>250</v>
-      </c>
-      <c r="J215" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K215" s="27"/>
-      <c r="L215" s="27"/>
-      <c r="M215" s="27"/>
-      <c r="N215" s="27"/>
-      <c r="O215" s="27"/>
-      <c r="P215" s="27"/>
-      <c r="Q215" s="32">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A216" s="27">
-        <v>215</v>
-      </c>
-      <c r="B216" s="27">
-        <v>1</v>
-      </c>
-      <c r="C216" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="D216" s="27"/>
-      <c r="E216" s="27"/>
-      <c r="F216" s="27"/>
-      <c r="G216" s="27"/>
-      <c r="H216" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>350</v>
-      </c>
-      <c r="I216" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>350</v>
-      </c>
-      <c r="J216" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K216" s="27"/>
-      <c r="L216" s="27"/>
-      <c r="M216" s="27"/>
-      <c r="N216" s="27"/>
-      <c r="O216" s="27"/>
-      <c r="P216" s="27"/>
-      <c r="Q216" s="32">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A217" s="27">
-        <v>216</v>
-      </c>
-      <c r="B217" s="27">
-        <v>1</v>
-      </c>
-      <c r="C217" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="D217" s="27"/>
-      <c r="E217" s="27"/>
-      <c r="F217" s="27"/>
-      <c r="G217" s="27"/>
-      <c r="H217" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>450</v>
-      </c>
-      <c r="I217" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>450</v>
-      </c>
-      <c r="J217" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K217" s="27"/>
-      <c r="L217" s="27"/>
-      <c r="M217" s="27"/>
-      <c r="N217" s="27"/>
-      <c r="O217" s="27"/>
-      <c r="P217" s="27"/>
-      <c r="Q217" s="32">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A218" s="17">
-        <v>217</v>
-      </c>
-      <c r="B218" s="17">
-        <v>1</v>
-      </c>
-      <c r="C218" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="D218" s="17"/>
-      <c r="E218" s="17"/>
-      <c r="F218" s="17"/>
-      <c r="G218" s="17"/>
-      <c r="H218" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W218,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>30</v>
-      </c>
-      <c r="I218" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W218,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>30</v>
-      </c>
-      <c r="J218" s="16">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W218,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K218" s="17"/>
-      <c r="L218" s="17"/>
-      <c r="M218" s="17"/>
-      <c r="N218" s="17"/>
-      <c r="O218" s="17"/>
-      <c r="P218" s="17"/>
-      <c r="Q218" s="21">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A219" s="17">
-        <v>218</v>
-      </c>
-      <c r="B219" s="17">
-        <v>1</v>
-      </c>
-      <c r="C219" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="D219" s="17"/>
-      <c r="E219" s="17"/>
-      <c r="F219" s="17"/>
-      <c r="G219" s="17"/>
-      <c r="H219" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W219,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>40</v>
-      </c>
-      <c r="I219" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W219,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>40</v>
-      </c>
-      <c r="J219" s="16">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W219,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K219" s="17"/>
-      <c r="L219" s="17"/>
-      <c r="M219" s="17"/>
-      <c r="N219" s="17"/>
-      <c r="O219" s="17"/>
-      <c r="P219" s="17"/>
-      <c r="Q219" s="21">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A220" s="17">
-        <v>219</v>
-      </c>
-      <c r="B220" s="17">
-        <v>1</v>
-      </c>
-      <c r="C220" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="D220" s="17"/>
-      <c r="E220" s="17"/>
-      <c r="F220" s="17"/>
-      <c r="G220" s="17"/>
-      <c r="H220" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W220,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>50</v>
-      </c>
-      <c r="I220" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W220,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>50</v>
-      </c>
-      <c r="J220" s="16">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W220,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K220" s="17"/>
-      <c r="L220" s="17"/>
-      <c r="M220" s="17"/>
-      <c r="N220" s="17"/>
-      <c r="O220" s="17"/>
-      <c r="P220" s="17"/>
-      <c r="Q220" s="21">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A221" s="17">
-        <v>220</v>
-      </c>
-      <c r="B221" s="17">
-        <v>1</v>
-      </c>
-      <c r="C221" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="D221" s="17"/>
-      <c r="E221" s="17"/>
-      <c r="F221" s="17"/>
-      <c r="G221" s="17"/>
-      <c r="H221" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W221,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="I221" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W221,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="J221" s="16">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W221,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K221" s="17"/>
-      <c r="L221" s="17"/>
-      <c r="M221" s="17"/>
-      <c r="N221" s="17"/>
-      <c r="O221" s="17"/>
-      <c r="P221" s="17"/>
-      <c r="Q221" s="21">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A222" s="17">
-        <v>221</v>
-      </c>
-      <c r="B222" s="17">
-        <v>1</v>
-      </c>
-      <c r="C222" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="D222" s="17"/>
-      <c r="E222" s="17"/>
-      <c r="F222" s="17"/>
-      <c r="G222" s="17"/>
-      <c r="H222" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W222,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>70</v>
-      </c>
-      <c r="I222" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W222,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>70</v>
-      </c>
-      <c r="J222" s="16">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W222,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K222" s="17"/>
-      <c r="L222" s="17"/>
-      <c r="M222" s="17"/>
-      <c r="N222" s="17"/>
-      <c r="O222" s="17"/>
-      <c r="P222" s="17"/>
-      <c r="Q222" s="21">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A223" s="17">
-        <v>222</v>
-      </c>
-      <c r="B223" s="17">
-        <v>1</v>
-      </c>
-      <c r="C223" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="D223" s="17"/>
-      <c r="E223" s="17"/>
-      <c r="F223" s="17"/>
-      <c r="G223" s="17"/>
-      <c r="H223" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W223,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>250</v>
-      </c>
-      <c r="I223" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W223,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>250</v>
-      </c>
-      <c r="J223" s="16">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W223,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K223" s="17"/>
-      <c r="L223" s="17"/>
-      <c r="M223" s="17"/>
-      <c r="N223" s="17"/>
-      <c r="O223" s="17"/>
-      <c r="P223" s="17"/>
-      <c r="Q223" s="21">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A224" s="17">
-        <v>223</v>
-      </c>
-      <c r="B224" s="17">
-        <v>1</v>
-      </c>
-      <c r="C224" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="D224" s="17"/>
-      <c r="E224" s="17"/>
-      <c r="F224" s="17"/>
-      <c r="G224" s="17"/>
-      <c r="H224" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W224,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>350</v>
-      </c>
-      <c r="I224" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W224,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>350</v>
-      </c>
-      <c r="J224" s="16">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W224,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K224" s="17"/>
-      <c r="L224" s="17"/>
-      <c r="M224" s="17"/>
-      <c r="N224" s="17"/>
-      <c r="O224" s="17"/>
-      <c r="P224" s="17"/>
-      <c r="Q224" s="21">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A225" s="17">
-        <v>224</v>
-      </c>
-      <c r="B225" s="17">
-        <v>1</v>
-      </c>
-      <c r="C225" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="D225" s="17"/>
-      <c r="E225" s="17"/>
-      <c r="F225" s="17"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W225,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>450</v>
-      </c>
-      <c r="I225" s="17">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W225,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>450</v>
-      </c>
-      <c r="J225" s="16">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W225,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K225" s="17"/>
-      <c r="L225" s="17"/>
-      <c r="M225" s="17"/>
-      <c r="N225" s="17"/>
-      <c r="O225" s="17"/>
-      <c r="P225" s="17"/>
-      <c r="Q225" s="21">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A226" s="27">
-        <v>225</v>
-      </c>
-      <c r="B226" s="27">
-        <v>1</v>
-      </c>
-      <c r="C226" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="D226" s="27"/>
-      <c r="E226" s="27"/>
-      <c r="F226" s="27"/>
-      <c r="G226" s="27"/>
-      <c r="H226" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W226,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>30</v>
-      </c>
-      <c r="I226" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W226,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>30</v>
-      </c>
-      <c r="J226" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V226,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W226,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K226" s="27"/>
-      <c r="L226" s="27"/>
-      <c r="M226" s="27"/>
-      <c r="N226" s="27"/>
-      <c r="O226" s="27"/>
-      <c r="P226" s="27"/>
-      <c r="Q226" s="32">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A227" s="27">
-        <v>226</v>
-      </c>
-      <c r="B227" s="27">
-        <v>1</v>
-      </c>
-      <c r="C227" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="D227" s="27"/>
-      <c r="E227" s="27"/>
-      <c r="F227" s="27"/>
-      <c r="G227" s="27"/>
-      <c r="H227" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q227,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R227,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S227,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T227,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U227,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V227,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W227,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>40</v>
-      </c>
-      <c r="I227" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q227,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R227,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S227,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T227,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U227,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V227,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W227,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>40</v>
-      </c>
-      <c r="J227" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q227,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R227,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S227,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T227,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U227,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V227,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W227,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K227" s="27"/>
-      <c r="L227" s="27"/>
-      <c r="M227" s="27"/>
-      <c r="N227" s="27"/>
-      <c r="O227" s="27"/>
-      <c r="P227" s="27"/>
-      <c r="Q227" s="32">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A228" s="27">
-        <v>227</v>
-      </c>
-      <c r="B228" s="27">
-        <v>1</v>
-      </c>
-      <c r="C228" s="27" t="s">
-        <v>435</v>
-      </c>
-      <c r="D228" s="27"/>
-      <c r="E228" s="27"/>
-      <c r="F228" s="27"/>
-      <c r="G228" s="27"/>
-      <c r="H228" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q228,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R228,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S228,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T228,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U228,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V228,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W228,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>50</v>
-      </c>
-      <c r="I228" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q228,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R228,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S228,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T228,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U228,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V228,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W228,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>50</v>
-      </c>
-      <c r="J228" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q228,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R228,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S228,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T228,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U228,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V228,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W228,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K228" s="27"/>
-      <c r="L228" s="27"/>
-      <c r="M228" s="27"/>
-      <c r="N228" s="27"/>
-      <c r="O228" s="27"/>
-      <c r="P228" s="27"/>
-      <c r="Q228" s="32">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A229" s="27">
-        <v>228</v>
-      </c>
-      <c r="B229" s="27">
-        <v>1</v>
-      </c>
-      <c r="C229" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="D229" s="27"/>
-      <c r="E229" s="27"/>
-      <c r="F229" s="27"/>
-      <c r="G229" s="27"/>
-      <c r="H229" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q229,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R229,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S229,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T229,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U229,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V229,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W229,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="I229" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q229,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R229,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S229,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T229,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U229,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V229,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W229,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="J229" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q229,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R229,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S229,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T229,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U229,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V229,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W229,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K229" s="27"/>
-      <c r="L229" s="27"/>
-      <c r="M229" s="27"/>
-      <c r="N229" s="27"/>
-      <c r="O229" s="27"/>
-      <c r="P229" s="27"/>
-      <c r="Q229" s="32">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A230" s="27">
-        <v>229</v>
-      </c>
-      <c r="B230" s="27">
-        <v>1</v>
-      </c>
-      <c r="C230" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="D230" s="27"/>
-      <c r="E230" s="27"/>
-      <c r="F230" s="27"/>
-      <c r="G230" s="27"/>
-      <c r="H230" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q230,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R230,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S230,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T230,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U230,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V230,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W230,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>70</v>
-      </c>
-      <c r="I230" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q230,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R230,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S230,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T230,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U230,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V230,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W230,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>70</v>
-      </c>
-      <c r="J230" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q230,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R230,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S230,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T230,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U230,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V230,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W230,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K230" s="27"/>
-      <c r="L230" s="27"/>
-      <c r="M230" s="27"/>
-      <c r="N230" s="27"/>
-      <c r="O230" s="27"/>
-      <c r="P230" s="27"/>
-      <c r="Q230" s="32">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A231" s="27">
-        <v>230</v>
-      </c>
-      <c r="B231" s="27">
-        <v>1</v>
-      </c>
-      <c r="C231" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="D231" s="27"/>
-      <c r="E231" s="27"/>
-      <c r="F231" s="27"/>
-      <c r="G231" s="27"/>
-      <c r="H231" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q231,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R231,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S231,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T231,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U231,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V231,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W231,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>250</v>
-      </c>
-      <c r="I231" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q231,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R231,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S231,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T231,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U231,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V231,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W231,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>250</v>
-      </c>
-      <c r="J231" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q231,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R231,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S231,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T231,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U231,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V231,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W231,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K231" s="27"/>
-      <c r="L231" s="27"/>
-      <c r="M231" s="27"/>
-      <c r="N231" s="27"/>
-      <c r="O231" s="27"/>
-      <c r="P231" s="27"/>
-      <c r="Q231" s="32">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A232" s="27">
-        <v>231</v>
-      </c>
-      <c r="B232" s="27">
-        <v>1</v>
-      </c>
-      <c r="C232" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="D232" s="27"/>
-      <c r="E232" s="27"/>
-      <c r="F232" s="27"/>
-      <c r="G232" s="27"/>
-      <c r="H232" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q232,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R232,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S232,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T232,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U232,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V232,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W232,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>350</v>
-      </c>
-      <c r="I232" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q232,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R232,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S232,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T232,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U232,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V232,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W232,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>350</v>
-      </c>
-      <c r="J232" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q232,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R232,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S232,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T232,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U232,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V232,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W232,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K232" s="27"/>
-      <c r="L232" s="27"/>
-      <c r="M232" s="27"/>
-      <c r="N232" s="27"/>
-      <c r="O232" s="27"/>
-      <c r="P232" s="27"/>
-      <c r="Q232" s="32">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A233" s="27">
-        <v>232</v>
-      </c>
-      <c r="B233" s="27">
-        <v>1</v>
-      </c>
-      <c r="C233" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="D233" s="27"/>
-      <c r="E233" s="27"/>
-      <c r="F233" s="27"/>
-      <c r="G233" s="27"/>
-      <c r="H233" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q233,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R233,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S233,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T233,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U233,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V233,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W233,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>450</v>
-      </c>
-      <c r="I233" s="27">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q233,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R233,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S233,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T233,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U233,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V233,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W233,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>450</v>
-      </c>
-      <c r="J233" s="30">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q233,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R233,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S233,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T233,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U233,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V233,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W233,use_fish!A:A,use_fish!K:K),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="K233" s="27"/>
-      <c r="L233" s="27"/>
-      <c r="M233" s="27"/>
-      <c r="N233" s="27"/>
-      <c r="O233" s="27"/>
-      <c r="P233" s="27"/>
-      <c r="Q233" s="32">
-        <v>206</v>
-      </c>
+    <row r="210" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J210" s="24"/>
+      <c r="Q210" s="26"/>
+    </row>
+    <row r="211" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J211" s="24"/>
+      <c r="Q211" s="26"/>
+    </row>
+    <row r="212" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J212" s="24"/>
+      <c r="Q212" s="26"/>
+    </row>
+    <row r="213" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J213" s="24"/>
+      <c r="Q213" s="26"/>
+    </row>
+    <row r="214" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J214" s="24"/>
+      <c r="Q214" s="26"/>
+    </row>
+    <row r="215" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J215" s="24"/>
+      <c r="Q215" s="26"/>
+    </row>
+    <row r="216" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J216" s="24"/>
+      <c r="Q216" s="26"/>
+    </row>
+    <row r="217" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J217" s="24"/>
+      <c r="Q217" s="26"/>
+    </row>
+    <row r="218" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J218" s="24"/>
+      <c r="Q218" s="26"/>
+    </row>
+    <row r="219" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J219" s="24"/>
+      <c r="Q219" s="26"/>
+    </row>
+    <row r="220" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J220" s="24"/>
+      <c r="Q220" s="26"/>
+    </row>
+    <row r="221" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J221" s="24"/>
+      <c r="Q221" s="26"/>
+    </row>
+    <row r="222" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J222" s="24"/>
+      <c r="Q222" s="26"/>
+    </row>
+    <row r="223" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J223" s="24"/>
+      <c r="Q223" s="26"/>
+    </row>
+    <row r="224" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J224" s="24"/>
+      <c r="Q224" s="26"/>
+    </row>
+    <row r="225" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J225" s="24"/>
+      <c r="Q225" s="26"/>
+    </row>
+    <row r="226" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J226" s="24"/>
+      <c r="Q226" s="26"/>
+    </row>
+    <row r="227" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J227" s="24"/>
+      <c r="Q227" s="26"/>
+    </row>
+    <row r="228" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J228" s="24"/>
+      <c r="Q228" s="26"/>
+    </row>
+    <row r="229" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J229" s="24"/>
+      <c r="Q229" s="26"/>
+    </row>
+    <row r="230" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J230" s="24"/>
+      <c r="Q230" s="26"/>
+    </row>
+    <row r="231" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J231" s="24"/>
+      <c r="Q231" s="26"/>
+    </row>
+    <row r="232" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J232" s="24"/>
+      <c r="Q232" s="26"/>
+    </row>
+    <row r="233" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J233" s="24"/>
+      <c r="Q233" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9242,7 +8332,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -9295,9 +8385,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K183" sqref="K183"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17975,1157 +17065,221 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A184" s="23">
-        <v>183</v>
-      </c>
-      <c r="B184" s="30">
-        <v>6</v>
-      </c>
-      <c r="C184" s="29">
-        <v>51</v>
-      </c>
-      <c r="D184" s="31"/>
-      <c r="E184" s="27">
-        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C184,activity!A:A,0)),0)</f>
-        <v>30</v>
-      </c>
-      <c r="F184" s="29">
-        <f t="shared" ref="F184:F191" si="10">1/E184</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="G184" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H184" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B184,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C184,activity!A:A,0)),"")</f>
-        <v>蓝灯鱼+临时活动</v>
-      </c>
-      <c r="I184" s="27">
-        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C184,activity!A:A,0)),0)</f>
-        <v>30</v>
-      </c>
-      <c r="J184" s="27">
-        <v>1</v>
-      </c>
-      <c r="K184" s="27">
-        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L184" s="27">
-        <f t="shared" ref="L184:L191" si="11">I184</f>
-        <v>30</v>
-      </c>
-      <c r="M184" s="27">
-        <v>1</v>
-      </c>
-      <c r="N184" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A185" s="23">
-        <v>184</v>
-      </c>
-      <c r="B185" s="30">
-        <v>7</v>
-      </c>
-      <c r="C185" s="29">
-        <v>51</v>
-      </c>
-      <c r="D185" s="31"/>
-      <c r="E185" s="27">
-        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C185,activity!A:A,0)),0)</f>
-        <v>40</v>
-      </c>
-      <c r="F185" s="29">
-        <f t="shared" si="10"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G185" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H185" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B185,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C185,activity!A:A,0)),"")</f>
-        <v>红杉鱼+临时活动</v>
-      </c>
-      <c r="I185" s="27">
-        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C185,activity!A:A,0)),0)</f>
-        <v>40</v>
-      </c>
-      <c r="J185" s="27">
-        <v>1</v>
-      </c>
-      <c r="K185" s="27">
-        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L185" s="27">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="M185" s="27">
-        <v>1</v>
-      </c>
-      <c r="N185" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A186" s="23">
-        <v>185</v>
-      </c>
-      <c r="B186" s="30">
-        <v>8</v>
-      </c>
-      <c r="C186" s="29">
-        <v>51</v>
-      </c>
-      <c r="D186" s="31"/>
-      <c r="E186" s="27">
-        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C186,activity!A:A,0)),0)</f>
-        <v>50</v>
-      </c>
-      <c r="F186" s="29">
-        <f t="shared" si="10"/>
-        <v>0.02</v>
-      </c>
-      <c r="G186" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H186" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B186,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C186,activity!A:A,0)),"")</f>
-        <v>海龟+临时活动</v>
-      </c>
-      <c r="I186" s="27">
-        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C186,activity!A:A,0)),0)</f>
-        <v>50</v>
-      </c>
-      <c r="J186" s="27">
-        <v>1</v>
-      </c>
-      <c r="K186" s="27">
-        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L186" s="27">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="M186" s="27">
-        <v>1</v>
-      </c>
-      <c r="N186" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A187" s="23">
-        <v>186</v>
-      </c>
-      <c r="B187" s="30">
-        <v>9</v>
-      </c>
-      <c r="C187" s="29">
-        <v>51</v>
-      </c>
-      <c r="D187" s="31"/>
-      <c r="E187" s="27">
-        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C187,activity!A:A,0)),0)</f>
-        <v>60</v>
-      </c>
-      <c r="F187" s="29">
-        <f t="shared" si="10"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="G187" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H187" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B187,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C187,activity!A:A,0)),"")</f>
-        <v>灯笼鱼+临时活动</v>
-      </c>
-      <c r="I187" s="27">
-        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C187,activity!A:A,0)),0)</f>
-        <v>60</v>
-      </c>
-      <c r="J187" s="27">
-        <v>1</v>
-      </c>
-      <c r="K187" s="27">
-        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L187" s="27">
-        <f t="shared" si="11"/>
-        <v>60</v>
-      </c>
-      <c r="M187" s="27">
-        <v>1</v>
-      </c>
-      <c r="N187" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A188" s="23">
-        <v>187</v>
-      </c>
-      <c r="B188" s="30">
-        <v>10</v>
-      </c>
-      <c r="C188" s="29">
-        <v>51</v>
-      </c>
-      <c r="D188" s="31"/>
-      <c r="E188" s="27">
-        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C188,activity!A:A,0)),0)</f>
-        <v>70</v>
-      </c>
-      <c r="F188" s="29">
-        <f t="shared" si="10"/>
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="G188" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H188" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B188,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C188,activity!A:A,0)),"")</f>
-        <v>魔鬼鱼+临时活动</v>
-      </c>
-      <c r="I188" s="27">
-        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C188,activity!A:A,0)),0)</f>
-        <v>70</v>
-      </c>
-      <c r="J188" s="27">
-        <v>1</v>
-      </c>
-      <c r="K188" s="27">
-        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L188" s="27">
-        <f t="shared" si="11"/>
-        <v>70</v>
-      </c>
-      <c r="M188" s="27">
-        <v>1</v>
-      </c>
-      <c r="N188" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A189" s="23">
-        <v>188</v>
-      </c>
-      <c r="B189" s="30">
-        <v>35</v>
-      </c>
-      <c r="C189" s="29">
-        <v>48</v>
-      </c>
-      <c r="D189" s="31"/>
-      <c r="E189" s="27">
-        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C189,activity!A:A,0)),0)</f>
-        <v>250</v>
-      </c>
-      <c r="F189" s="29">
-        <f t="shared" si="10"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G189" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H189" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B189,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C189,activity!A:A,0)),"")</f>
-        <v>活动boss+临时活动</v>
-      </c>
-      <c r="I189" s="27">
-        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C189,activity!A:A,0)),0)</f>
-        <v>250</v>
-      </c>
-      <c r="J189" s="27">
-        <v>1</v>
-      </c>
-      <c r="K189" s="27">
-        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L189" s="27">
-        <f t="shared" si="11"/>
-        <v>250</v>
-      </c>
-      <c r="M189" s="27">
-        <v>1</v>
-      </c>
-      <c r="N189" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A190" s="23">
-        <v>189</v>
-      </c>
-      <c r="B190" s="30">
-        <v>35</v>
-      </c>
-      <c r="C190" s="29">
-        <v>49</v>
-      </c>
-      <c r="D190" s="31"/>
-      <c r="E190" s="27">
-        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C190,activity!A:A,0)),0)</f>
-        <v>350</v>
-      </c>
-      <c r="F190" s="29">
-        <f t="shared" si="10"/>
-        <v>2.8571428571428571E-3</v>
-      </c>
-      <c r="G190" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H190" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B190,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C190,activity!A:A,0)),"")</f>
-        <v>活动boss+临时活动</v>
-      </c>
-      <c r="I190" s="27">
-        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C190,activity!A:A,0)),0)</f>
-        <v>350</v>
-      </c>
-      <c r="J190" s="27">
-        <v>1</v>
-      </c>
-      <c r="K190" s="27">
-        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L190" s="27">
-        <f t="shared" si="11"/>
-        <v>350</v>
-      </c>
-      <c r="M190" s="27">
-        <v>1</v>
-      </c>
-      <c r="N190" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A191" s="23">
-        <v>190</v>
-      </c>
-      <c r="B191" s="30">
-        <v>35</v>
-      </c>
-      <c r="C191" s="29">
-        <v>50</v>
-      </c>
-      <c r="D191" s="31"/>
-      <c r="E191" s="27">
-        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C191,activity!A:A,0)),0)</f>
-        <v>450</v>
-      </c>
-      <c r="F191" s="29">
-        <f t="shared" si="10"/>
-        <v>2.2222222222222222E-3</v>
-      </c>
-      <c r="G191" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H191" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B191,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C191,activity!A:A,0)),"")</f>
-        <v>活动boss+临时活动</v>
-      </c>
-      <c r="I191" s="27">
-        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C191,activity!A:A,0)),0)</f>
-        <v>450</v>
-      </c>
-      <c r="J191" s="27">
-        <v>1</v>
-      </c>
-      <c r="K191" s="27">
-        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L191" s="27">
-        <f t="shared" si="11"/>
-        <v>450</v>
-      </c>
-      <c r="M191" s="27">
-        <v>1</v>
-      </c>
-      <c r="N191" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A192" s="23">
-        <v>191</v>
-      </c>
-      <c r="B192" s="16">
-        <v>6</v>
-      </c>
-      <c r="C192" s="19">
-        <v>55</v>
-      </c>
-      <c r="D192" s="20"/>
-      <c r="E192" s="17">
-        <f>LOOKUP(use_fish!B192,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C192,activity!A:A,0)),0)</f>
-        <v>30</v>
-      </c>
-      <c r="F192" s="19">
-        <f t="shared" ref="F192:F199" si="12">1/E192</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="G192" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H192" s="19" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B192,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C192,activity!A:A,0)),"")</f>
-        <v>蓝灯鱼+临时活动</v>
-      </c>
-      <c r="I192" s="17">
-        <f>LOOKUP(use_fish!B192,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C192,activity!A:A,0)),0)</f>
-        <v>30</v>
-      </c>
-      <c r="J192" s="17">
-        <v>1</v>
-      </c>
-      <c r="K192" s="17">
-        <f>LOOKUP(use_fish!B192,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L192" s="17">
-        <f t="shared" ref="L192:L199" si="13">I192</f>
-        <v>30</v>
-      </c>
-      <c r="M192" s="17">
-        <v>1</v>
-      </c>
-      <c r="N192" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A193" s="23">
-        <v>192</v>
-      </c>
-      <c r="B193" s="16">
-        <v>7</v>
-      </c>
-      <c r="C193" s="19">
-        <v>55</v>
-      </c>
-      <c r="D193" s="20"/>
-      <c r="E193" s="17">
-        <f>LOOKUP(use_fish!B193,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C193,activity!A:A,0)),0)</f>
-        <v>40</v>
-      </c>
-      <c r="F193" s="19">
-        <f t="shared" si="12"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G193" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H193" s="19" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B193,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C193,activity!A:A,0)),"")</f>
-        <v>红杉鱼+临时活动</v>
-      </c>
-      <c r="I193" s="17">
-        <f>LOOKUP(use_fish!B193,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C193,activity!A:A,0)),0)</f>
-        <v>40</v>
-      </c>
-      <c r="J193" s="17">
-        <v>1</v>
-      </c>
-      <c r="K193" s="17">
-        <f>LOOKUP(use_fish!B193,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L193" s="17">
-        <f t="shared" si="13"/>
-        <v>40</v>
-      </c>
-      <c r="M193" s="17">
-        <v>1</v>
-      </c>
-      <c r="N193" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A194" s="23">
-        <v>193</v>
-      </c>
-      <c r="B194" s="16">
-        <v>8</v>
-      </c>
-      <c r="C194" s="19">
-        <v>55</v>
-      </c>
-      <c r="D194" s="20"/>
-      <c r="E194" s="17">
-        <f>LOOKUP(use_fish!B194,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C194,activity!A:A,0)),0)</f>
-        <v>50</v>
-      </c>
-      <c r="F194" s="19">
-        <f t="shared" si="12"/>
-        <v>0.02</v>
-      </c>
-      <c r="G194" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H194" s="19" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B194,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C194,activity!A:A,0)),"")</f>
-        <v>海龟+临时活动</v>
-      </c>
-      <c r="I194" s="17">
-        <f>LOOKUP(use_fish!B194,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C194,activity!A:A,0)),0)</f>
-        <v>50</v>
-      </c>
-      <c r="J194" s="17">
-        <v>1</v>
-      </c>
-      <c r="K194" s="17">
-        <f>LOOKUP(use_fish!B194,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L194" s="17">
-        <f t="shared" si="13"/>
-        <v>50</v>
-      </c>
-      <c r="M194" s="17">
-        <v>1</v>
-      </c>
-      <c r="N194" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A195" s="23">
-        <v>194</v>
-      </c>
-      <c r="B195" s="16">
-        <v>9</v>
-      </c>
-      <c r="C195" s="19">
-        <v>55</v>
-      </c>
-      <c r="D195" s="20"/>
-      <c r="E195" s="17">
-        <f>LOOKUP(use_fish!B195,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C195,activity!A:A,0)),0)</f>
-        <v>60</v>
-      </c>
-      <c r="F195" s="19">
-        <f t="shared" si="12"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="G195" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H195" s="19" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B195,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C195,activity!A:A,0)),"")</f>
-        <v>灯笼鱼+临时活动</v>
-      </c>
-      <c r="I195" s="17">
-        <f>LOOKUP(use_fish!B195,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C195,activity!A:A,0)),0)</f>
-        <v>60</v>
-      </c>
-      <c r="J195" s="17">
-        <v>1</v>
-      </c>
-      <c r="K195" s="17">
-        <f>LOOKUP(use_fish!B195,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L195" s="17">
-        <f t="shared" si="13"/>
-        <v>60</v>
-      </c>
-      <c r="M195" s="17">
-        <v>1</v>
-      </c>
-      <c r="N195" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A196" s="23">
-        <v>195</v>
-      </c>
-      <c r="B196" s="16">
-        <v>10</v>
-      </c>
-      <c r="C196" s="19">
-        <v>55</v>
-      </c>
-      <c r="D196" s="20"/>
-      <c r="E196" s="17">
-        <f>LOOKUP(use_fish!B196,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C196,activity!A:A,0)),0)</f>
-        <v>70</v>
-      </c>
-      <c r="F196" s="19">
-        <f t="shared" si="12"/>
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="G196" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H196" s="19" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B196,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C196,activity!A:A,0)),"")</f>
-        <v>魔鬼鱼+临时活动</v>
-      </c>
-      <c r="I196" s="17">
-        <f>LOOKUP(use_fish!B196,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C196,activity!A:A,0)),0)</f>
-        <v>70</v>
-      </c>
-      <c r="J196" s="17">
-        <v>1</v>
-      </c>
-      <c r="K196" s="17">
-        <f>LOOKUP(use_fish!B196,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L196" s="17">
-        <f t="shared" si="13"/>
-        <v>70</v>
-      </c>
-      <c r="M196" s="17">
-        <v>1</v>
-      </c>
-      <c r="N196" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A197" s="23">
-        <v>196</v>
-      </c>
-      <c r="B197" s="16">
-        <v>35</v>
-      </c>
-      <c r="C197" s="19">
-        <v>52</v>
-      </c>
-      <c r="D197" s="20"/>
-      <c r="E197" s="17">
-        <f>LOOKUP(use_fish!B197,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C197,activity!A:A,0)),0)</f>
-        <v>250</v>
-      </c>
-      <c r="F197" s="19">
-        <f t="shared" si="12"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G197" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H197" s="19" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B197,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C197,activity!A:A,0)),"")</f>
-        <v>活动boss+临时活动</v>
-      </c>
-      <c r="I197" s="17">
-        <f>LOOKUP(use_fish!B197,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C197,activity!A:A,0)),0)</f>
-        <v>250</v>
-      </c>
-      <c r="J197" s="17">
-        <v>1</v>
-      </c>
-      <c r="K197" s="17">
-        <f>LOOKUP(use_fish!B197,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L197" s="17">
-        <f t="shared" si="13"/>
-        <v>250</v>
-      </c>
-      <c r="M197" s="17">
-        <v>1</v>
-      </c>
-      <c r="N197" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A198" s="23">
-        <v>197</v>
-      </c>
-      <c r="B198" s="16">
-        <v>35</v>
-      </c>
-      <c r="C198" s="19">
-        <v>53</v>
-      </c>
-      <c r="D198" s="20"/>
-      <c r="E198" s="17">
-        <f>LOOKUP(use_fish!B198,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C198,activity!A:A,0)),0)</f>
-        <v>350</v>
-      </c>
-      <c r="F198" s="19">
-        <f t="shared" si="12"/>
-        <v>2.8571428571428571E-3</v>
-      </c>
-      <c r="G198" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H198" s="19" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B198,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C198,activity!A:A,0)),"")</f>
-        <v>活动boss+临时活动</v>
-      </c>
-      <c r="I198" s="17">
-        <f>LOOKUP(use_fish!B198,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C198,activity!A:A,0)),0)</f>
-        <v>350</v>
-      </c>
-      <c r="J198" s="17">
-        <v>1</v>
-      </c>
-      <c r="K198" s="17">
-        <f>LOOKUP(use_fish!B198,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L198" s="17">
-        <f t="shared" si="13"/>
-        <v>350</v>
-      </c>
-      <c r="M198" s="17">
-        <v>1</v>
-      </c>
-      <c r="N198" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A199" s="23">
-        <v>198</v>
-      </c>
-      <c r="B199" s="16">
-        <v>35</v>
-      </c>
-      <c r="C199" s="19">
-        <v>54</v>
-      </c>
-      <c r="D199" s="20"/>
-      <c r="E199" s="17">
-        <f>LOOKUP(use_fish!B199,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C199,activity!A:A,0)),0)</f>
-        <v>450</v>
-      </c>
-      <c r="F199" s="19">
-        <f t="shared" si="12"/>
-        <v>2.2222222222222222E-3</v>
-      </c>
-      <c r="G199" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H199" s="19" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B199,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C199,activity!A:A,0)),"")</f>
-        <v>活动boss+临时活动</v>
-      </c>
-      <c r="I199" s="17">
-        <f>LOOKUP(use_fish!B199,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C199,activity!A:A,0)),0)</f>
-        <v>450</v>
-      </c>
-      <c r="J199" s="17">
-        <v>1</v>
-      </c>
-      <c r="K199" s="17">
-        <f>LOOKUP(use_fish!B199,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L199" s="17">
-        <f t="shared" si="13"/>
-        <v>450</v>
-      </c>
-      <c r="M199" s="17">
-        <v>1</v>
-      </c>
-      <c r="N199" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A200" s="23">
-        <v>199</v>
-      </c>
-      <c r="B200" s="30">
-        <v>6</v>
-      </c>
-      <c r="C200" s="29">
-        <v>59</v>
-      </c>
-      <c r="D200" s="31"/>
-      <c r="E200" s="27">
-        <f>LOOKUP(use_fish!B200,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C200,activity!A:A,0)),0)</f>
-        <v>30</v>
-      </c>
-      <c r="F200" s="29">
-        <f t="shared" ref="F200:F207" si="14">1/E200</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="G200" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H200" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B200,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C200,activity!A:A,0)),"")</f>
-        <v>蓝灯鱼+临时活动</v>
-      </c>
-      <c r="I200" s="27">
-        <f>LOOKUP(use_fish!B200,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C200,activity!A:A,0)),0)</f>
-        <v>30</v>
-      </c>
-      <c r="J200" s="27">
-        <v>1</v>
-      </c>
-      <c r="K200" s="27">
-        <f>LOOKUP(use_fish!B200,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L200" s="27">
-        <f t="shared" ref="L200:L207" si="15">I200</f>
-        <v>30</v>
-      </c>
-      <c r="M200" s="27">
-        <v>1</v>
-      </c>
-      <c r="N200" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A201" s="23">
-        <v>200</v>
-      </c>
-      <c r="B201" s="30">
-        <v>7</v>
-      </c>
-      <c r="C201" s="29">
-        <v>59</v>
-      </c>
-      <c r="D201" s="31"/>
-      <c r="E201" s="27">
-        <f>LOOKUP(use_fish!B201,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C201,activity!A:A,0)),0)</f>
-        <v>40</v>
-      </c>
-      <c r="F201" s="29">
-        <f t="shared" si="14"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G201" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H201" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B201,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C201,activity!A:A,0)),"")</f>
-        <v>红杉鱼+临时活动</v>
-      </c>
-      <c r="I201" s="27">
-        <f>LOOKUP(use_fish!B201,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C201,activity!A:A,0)),0)</f>
-        <v>40</v>
-      </c>
-      <c r="J201" s="27">
-        <v>1</v>
-      </c>
-      <c r="K201" s="27">
-        <f>LOOKUP(use_fish!B201,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L201" s="27">
-        <f t="shared" si="15"/>
-        <v>40</v>
-      </c>
-      <c r="M201" s="27">
-        <v>1</v>
-      </c>
-      <c r="N201" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A202" s="23">
-        <v>201</v>
-      </c>
-      <c r="B202" s="30">
-        <v>8</v>
-      </c>
-      <c r="C202" s="29">
-        <v>59</v>
-      </c>
-      <c r="D202" s="31"/>
-      <c r="E202" s="27">
-        <f>LOOKUP(use_fish!B202,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C202,activity!A:A,0)),0)</f>
-        <v>50</v>
-      </c>
-      <c r="F202" s="29">
-        <f t="shared" si="14"/>
-        <v>0.02</v>
-      </c>
-      <c r="G202" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H202" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B202,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C202,activity!A:A,0)),"")</f>
-        <v>海龟+临时活动</v>
-      </c>
-      <c r="I202" s="27">
-        <f>LOOKUP(use_fish!B202,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C202,activity!A:A,0)),0)</f>
-        <v>50</v>
-      </c>
-      <c r="J202" s="27">
-        <v>1</v>
-      </c>
-      <c r="K202" s="27">
-        <f>LOOKUP(use_fish!B202,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L202" s="27">
-        <f t="shared" si="15"/>
-        <v>50</v>
-      </c>
-      <c r="M202" s="27">
-        <v>1</v>
-      </c>
-      <c r="N202" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A203" s="23">
-        <v>202</v>
-      </c>
-      <c r="B203" s="30">
-        <v>9</v>
-      </c>
-      <c r="C203" s="29">
-        <v>59</v>
-      </c>
-      <c r="D203" s="31"/>
-      <c r="E203" s="27">
-        <f>LOOKUP(use_fish!B203,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C203,activity!A:A,0)),0)</f>
-        <v>60</v>
-      </c>
-      <c r="F203" s="29">
-        <f t="shared" si="14"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="G203" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H203" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B203,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C203,activity!A:A,0)),"")</f>
-        <v>灯笼鱼+临时活动</v>
-      </c>
-      <c r="I203" s="27">
-        <f>LOOKUP(use_fish!B203,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C203,activity!A:A,0)),0)</f>
-        <v>60</v>
-      </c>
-      <c r="J203" s="27">
-        <v>1</v>
-      </c>
-      <c r="K203" s="27">
-        <f>LOOKUP(use_fish!B203,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L203" s="27">
-        <f t="shared" si="15"/>
-        <v>60</v>
-      </c>
-      <c r="M203" s="27">
-        <v>1</v>
-      </c>
-      <c r="N203" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A204" s="23">
-        <v>203</v>
-      </c>
-      <c r="B204" s="30">
-        <v>10</v>
-      </c>
-      <c r="C204" s="29">
-        <v>59</v>
-      </c>
-      <c r="D204" s="31"/>
-      <c r="E204" s="27">
-        <f>LOOKUP(use_fish!B204,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C204,activity!A:A,0)),0)</f>
-        <v>70</v>
-      </c>
-      <c r="F204" s="29">
-        <f t="shared" si="14"/>
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="G204" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H204" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B204,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C204,activity!A:A,0)),"")</f>
-        <v>魔鬼鱼+临时活动</v>
-      </c>
-      <c r="I204" s="27">
-        <f>LOOKUP(use_fish!B204,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C204,activity!A:A,0)),0)</f>
-        <v>70</v>
-      </c>
-      <c r="J204" s="27">
-        <v>1</v>
-      </c>
-      <c r="K204" s="27">
-        <f>LOOKUP(use_fish!B204,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L204" s="27">
-        <f t="shared" si="15"/>
-        <v>70</v>
-      </c>
-      <c r="M204" s="27">
-        <v>1</v>
-      </c>
-      <c r="N204" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A205" s="23">
-        <v>204</v>
-      </c>
-      <c r="B205" s="30">
-        <v>35</v>
-      </c>
-      <c r="C205" s="29">
-        <v>56</v>
-      </c>
-      <c r="D205" s="31"/>
-      <c r="E205" s="27">
-        <f>LOOKUP(use_fish!B205,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C205,activity!A:A,0)),0)</f>
-        <v>250</v>
-      </c>
-      <c r="F205" s="29">
-        <f t="shared" si="14"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G205" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H205" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B205,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C205,activity!A:A,0)),"")</f>
-        <v>活动boss+临时活动</v>
-      </c>
-      <c r="I205" s="27">
-        <f>LOOKUP(use_fish!B205,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C205,activity!A:A,0)),0)</f>
-        <v>250</v>
-      </c>
-      <c r="J205" s="27">
-        <v>1</v>
-      </c>
-      <c r="K205" s="27">
-        <f>LOOKUP(use_fish!B205,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L205" s="27">
-        <f t="shared" si="15"/>
-        <v>250</v>
-      </c>
-      <c r="M205" s="27">
-        <v>1</v>
-      </c>
-      <c r="N205" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A206" s="23">
-        <v>205</v>
-      </c>
-      <c r="B206" s="30">
-        <v>35</v>
-      </c>
-      <c r="C206" s="29">
-        <v>57</v>
-      </c>
-      <c r="D206" s="31"/>
-      <c r="E206" s="27">
-        <f>LOOKUP(use_fish!B206,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C206,activity!A:A,0)),0)</f>
-        <v>350</v>
-      </c>
-      <c r="F206" s="29">
-        <f t="shared" si="14"/>
-        <v>2.8571428571428571E-3</v>
-      </c>
-      <c r="G206" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H206" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B206,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C206,activity!A:A,0)),"")</f>
-        <v>活动boss+临时活动</v>
-      </c>
-      <c r="I206" s="27">
-        <f>LOOKUP(use_fish!B206,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C206,activity!A:A,0)),0)</f>
-        <v>350</v>
-      </c>
-      <c r="J206" s="27">
-        <v>1</v>
-      </c>
-      <c r="K206" s="27">
-        <f>LOOKUP(use_fish!B206,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L206" s="27">
-        <f t="shared" si="15"/>
-        <v>350</v>
-      </c>
-      <c r="M206" s="27">
-        <v>1</v>
-      </c>
-      <c r="N206" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A207" s="23">
-        <v>206</v>
-      </c>
-      <c r="B207" s="30">
-        <v>35</v>
-      </c>
-      <c r="C207" s="29">
-        <v>58</v>
-      </c>
-      <c r="D207" s="31"/>
-      <c r="E207" s="27">
-        <f>LOOKUP(use_fish!B207,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C207,activity!A:A,0)),0)</f>
-        <v>450</v>
-      </c>
-      <c r="F207" s="29">
-        <f t="shared" si="14"/>
-        <v>2.2222222222222222E-3</v>
-      </c>
-      <c r="G207" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H207" s="29" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B207,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C207,activity!A:A,0)),"")</f>
-        <v>活动boss+临时活动</v>
-      </c>
-      <c r="I207" s="27">
-        <f>LOOKUP(use_fish!B207,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C207,activity!A:A,0)),0)</f>
-        <v>450</v>
-      </c>
-      <c r="J207" s="27">
-        <v>1</v>
-      </c>
-      <c r="K207" s="27">
-        <f>LOOKUP(use_fish!B207,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="L207" s="27">
-        <f t="shared" si="15"/>
-        <v>450</v>
-      </c>
-      <c r="M207" s="27">
-        <v>1</v>
-      </c>
-      <c r="N207" s="27">
-        <v>1</v>
-      </c>
+    <row r="184" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="23"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="25"/>
+      <c r="F184" s="23"/>
+      <c r="G184" s="24"/>
+      <c r="H184" s="23"/>
+    </row>
+    <row r="185" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="23"/>
+      <c r="B185" s="24"/>
+      <c r="C185" s="23"/>
+      <c r="D185" s="25"/>
+      <c r="F185" s="23"/>
+      <c r="G185" s="24"/>
+      <c r="H185" s="23"/>
+    </row>
+    <row r="186" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="23"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="23"/>
+      <c r="D186" s="25"/>
+      <c r="F186" s="23"/>
+      <c r="G186" s="24"/>
+      <c r="H186" s="23"/>
+    </row>
+    <row r="187" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="23"/>
+      <c r="B187" s="24"/>
+      <c r="C187" s="23"/>
+      <c r="D187" s="25"/>
+      <c r="F187" s="23"/>
+      <c r="G187" s="24"/>
+      <c r="H187" s="23"/>
+    </row>
+    <row r="188" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="23"/>
+      <c r="B188" s="24"/>
+      <c r="C188" s="23"/>
+      <c r="D188" s="25"/>
+      <c r="F188" s="23"/>
+      <c r="G188" s="24"/>
+      <c r="H188" s="23"/>
+    </row>
+    <row r="189" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="23"/>
+      <c r="B189" s="24"/>
+      <c r="C189" s="23"/>
+      <c r="D189" s="25"/>
+      <c r="F189" s="23"/>
+      <c r="G189" s="24"/>
+      <c r="H189" s="23"/>
+    </row>
+    <row r="190" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="23"/>
+      <c r="B190" s="24"/>
+      <c r="C190" s="23"/>
+      <c r="D190" s="25"/>
+      <c r="F190" s="23"/>
+      <c r="G190" s="24"/>
+      <c r="H190" s="23"/>
+    </row>
+    <row r="191" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="23"/>
+      <c r="B191" s="24"/>
+      <c r="C191" s="23"/>
+      <c r="D191" s="25"/>
+      <c r="F191" s="23"/>
+      <c r="G191" s="24"/>
+      <c r="H191" s="23"/>
+    </row>
+    <row r="192" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="23"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="23"/>
+      <c r="D192" s="25"/>
+      <c r="F192" s="23"/>
+      <c r="G192" s="24"/>
+      <c r="H192" s="23"/>
+    </row>
+    <row r="193" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="23"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="23"/>
+      <c r="D193" s="25"/>
+      <c r="F193" s="23"/>
+      <c r="G193" s="24"/>
+      <c r="H193" s="23"/>
+    </row>
+    <row r="194" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="23"/>
+      <c r="B194" s="24"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="25"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="24"/>
+      <c r="H194" s="23"/>
+    </row>
+    <row r="195" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="23"/>
+      <c r="B195" s="24"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="25"/>
+      <c r="F195" s="23"/>
+      <c r="G195" s="24"/>
+      <c r="H195" s="23"/>
+    </row>
+    <row r="196" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="23"/>
+      <c r="B196" s="24"/>
+      <c r="C196" s="23"/>
+      <c r="D196" s="25"/>
+      <c r="F196" s="23"/>
+      <c r="G196" s="24"/>
+      <c r="H196" s="23"/>
+    </row>
+    <row r="197" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="23"/>
+      <c r="B197" s="24"/>
+      <c r="C197" s="23"/>
+      <c r="D197" s="25"/>
+      <c r="F197" s="23"/>
+      <c r="G197" s="24"/>
+      <c r="H197" s="23"/>
+    </row>
+    <row r="198" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="23"/>
+      <c r="B198" s="24"/>
+      <c r="C198" s="23"/>
+      <c r="D198" s="25"/>
+      <c r="F198" s="23"/>
+      <c r="G198" s="24"/>
+      <c r="H198" s="23"/>
+    </row>
+    <row r="199" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="23"/>
+      <c r="B199" s="24"/>
+      <c r="C199" s="23"/>
+      <c r="D199" s="25"/>
+      <c r="F199" s="23"/>
+      <c r="G199" s="24"/>
+      <c r="H199" s="23"/>
+    </row>
+    <row r="200" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="23"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="23"/>
+      <c r="D200" s="25"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="24"/>
+      <c r="H200" s="23"/>
+    </row>
+    <row r="201" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="23"/>
+      <c r="B201" s="24"/>
+      <c r="C201" s="23"/>
+      <c r="D201" s="25"/>
+      <c r="F201" s="23"/>
+      <c r="G201" s="24"/>
+      <c r="H201" s="23"/>
+    </row>
+    <row r="202" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="23"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="23"/>
+      <c r="D202" s="25"/>
+      <c r="F202" s="23"/>
+      <c r="G202" s="24"/>
+      <c r="H202" s="23"/>
+    </row>
+    <row r="203" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="23"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="25"/>
+      <c r="F203" s="23"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="23"/>
+    </row>
+    <row r="204" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="23"/>
+      <c r="B204" s="24"/>
+      <c r="C204" s="23"/>
+      <c r="D204" s="25"/>
+      <c r="F204" s="23"/>
+      <c r="G204" s="24"/>
+      <c r="H204" s="23"/>
+    </row>
+    <row r="205" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="23"/>
+      <c r="B205" s="24"/>
+      <c r="C205" s="23"/>
+      <c r="D205" s="25"/>
+      <c r="F205" s="23"/>
+      <c r="G205" s="24"/>
+      <c r="H205" s="23"/>
+    </row>
+    <row r="206" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="23"/>
+      <c r="B206" s="24"/>
+      <c r="C206" s="23"/>
+      <c r="D206" s="25"/>
+      <c r="F206" s="23"/>
+      <c r="G206" s="24"/>
+      <c r="H206" s="23"/>
+    </row>
+    <row r="207" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="23"/>
+      <c r="B207" s="24"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="25"/>
+      <c r="F207" s="23"/>
+      <c r="G207" s="24"/>
+      <c r="H207" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19139,8 +17293,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A60"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20417,281 +18571,53 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="22">
-        <v>48</v>
-      </c>
-      <c r="B49" s="27">
-        <v>9</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="D49" s="28">
-        <v>0</v>
-      </c>
-      <c r="E49" s="28">
-        <v>1</v>
-      </c>
-      <c r="F49" s="27">
-        <v>250</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="22">
-        <v>49</v>
-      </c>
-      <c r="B50" s="27">
-        <v>9</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="D50" s="28">
-        <v>0</v>
-      </c>
-      <c r="E50" s="28">
-        <v>1</v>
-      </c>
-      <c r="F50" s="27">
-        <v>350</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="22">
-        <v>50</v>
-      </c>
-      <c r="B51" s="27">
-        <v>9</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="D51" s="28">
-        <v>0</v>
-      </c>
-      <c r="E51" s="28">
-        <v>1</v>
-      </c>
-      <c r="F51" s="27">
-        <v>450</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="22">
-        <v>51</v>
-      </c>
-      <c r="B52" s="27">
-        <v>9</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="D52" s="28">
-        <v>1</v>
-      </c>
-      <c r="E52" s="28">
-        <v>1</v>
-      </c>
-      <c r="F52" s="27">
-        <v>10</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="22">
-        <v>52</v>
-      </c>
-      <c r="B53" s="17">
-        <v>9</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="D53" s="18">
-        <v>0</v>
-      </c>
-      <c r="E53" s="18">
-        <v>1</v>
-      </c>
-      <c r="F53" s="17">
-        <v>250</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="22">
-        <v>53</v>
-      </c>
-      <c r="B54" s="17">
-        <v>9</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="D54" s="18">
-        <v>0</v>
-      </c>
-      <c r="E54" s="18">
-        <v>1</v>
-      </c>
-      <c r="F54" s="17">
-        <v>350</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="22">
-        <v>54</v>
-      </c>
-      <c r="B55" s="17">
-        <v>9</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="D55" s="18">
-        <v>0</v>
-      </c>
-      <c r="E55" s="18">
-        <v>1</v>
-      </c>
-      <c r="F55" s="17">
-        <v>450</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="22">
-        <v>55</v>
-      </c>
-      <c r="B56" s="17">
-        <v>9</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="D56" s="18">
-        <v>1</v>
-      </c>
-      <c r="E56" s="18">
-        <v>1</v>
-      </c>
-      <c r="F56" s="17">
-        <v>10</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="22">
-        <v>56</v>
-      </c>
-      <c r="B57" s="27">
-        <v>9</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="D57" s="28">
-        <v>0</v>
-      </c>
-      <c r="E57" s="28">
-        <v>1</v>
-      </c>
-      <c r="F57" s="27">
-        <v>250</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="22">
-        <v>57</v>
-      </c>
-      <c r="B58" s="27">
-        <v>9</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="D58" s="28">
-        <v>0</v>
-      </c>
-      <c r="E58" s="28">
-        <v>1</v>
-      </c>
-      <c r="F58" s="27">
-        <v>350</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="22">
-        <v>58</v>
-      </c>
-      <c r="B59" s="27">
-        <v>9</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="D59" s="28">
-        <v>0</v>
-      </c>
-      <c r="E59" s="28">
-        <v>1</v>
-      </c>
-      <c r="F59" s="27">
-        <v>450</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="22">
-        <v>59</v>
-      </c>
-      <c r="B60" s="27">
-        <v>9</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="D60" s="28">
-        <v>1</v>
-      </c>
-      <c r="E60" s="28">
-        <v>1</v>
-      </c>
-      <c r="F60" s="27">
-        <v>10</v>
-      </c>
-      <c r="G60" s="27" t="s">
-        <v>132</v>
-      </c>
+    <row r="49" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="4:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_2.9/fish_2d_fish_server.xlsx
+++ b/config_2.9/fish_2d_fish_server.xlsx
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="429">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1772,6 +1772,46 @@
   </si>
   <si>
     <t>190,</t>
+  </si>
+  <si>
+    <t>2,2,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,0.4,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191,</t>
+  </si>
+  <si>
+    <t>192,</t>
+  </si>
+  <si>
+    <t>193,</t>
+  </si>
+  <si>
+    <t>194,</t>
+  </si>
+  <si>
+    <t>195,</t>
+  </si>
+  <si>
+    <t>196,</t>
+  </si>
+  <si>
+    <t>197,</t>
+  </si>
+  <si>
+    <t>198,</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1869,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1851,6 +1891,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1894,7 +1940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1978,6 +2024,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2264,14 +2326,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
       <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="6" width="8.625"/>
+    <col min="3" max="3" width="8.625" style="11"/>
+    <col min="4" max="6" width="8.625"/>
     <col min="7" max="7" width="10.625" customWidth="1"/>
     <col min="11" max="11" width="29.5" customWidth="1"/>
     <col min="12" max="12" width="8.625"/>
@@ -2286,7 +2349,7 @@
       <c r="B1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2345,7 +2408,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>160</v>
       </c>
       <c r="D2" t="s">
@@ -2381,7 +2444,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>108</v>
       </c>
       <c r="D3" t="s">
@@ -2416,7 +2479,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>162</v>
       </c>
       <c r="D4" t="s">
@@ -2451,7 +2514,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>161</v>
       </c>
       <c r="D5" t="s">
@@ -2486,7 +2549,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>164</v>
       </c>
       <c r="E6" t="s">
@@ -2518,7 +2581,7 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>163</v>
       </c>
       <c r="D7" t="s">
@@ -2550,7 +2613,7 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>160</v>
       </c>
       <c r="D8" t="s">
@@ -2585,7 +2648,7 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="11" t="s">
         <v>160</v>
       </c>
       <c r="D9" t="s">
@@ -2620,7 +2683,7 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="11" t="s">
         <v>161</v>
       </c>
       <c r="D10" t="s">
@@ -2655,7 +2718,7 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="11" t="s">
         <v>161</v>
       </c>
       <c r="D11" t="s">
@@ -2690,7 +2753,7 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="11" t="s">
         <v>164</v>
       </c>
       <c r="D12" t="s">
@@ -2725,7 +2788,7 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="11" t="s">
         <v>165</v>
       </c>
       <c r="D13" t="s">
@@ -2760,7 +2823,7 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="11" t="s">
         <v>166</v>
       </c>
       <c r="D14" t="s">
@@ -2795,7 +2858,7 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="11" t="s">
         <v>167</v>
       </c>
       <c r="D15" t="s">
@@ -2830,7 +2893,7 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="11" t="s">
         <v>168</v>
       </c>
       <c r="D16" t="s">
@@ -2865,7 +2928,7 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="11" t="s">
         <v>169</v>
       </c>
       <c r="D17" t="s">
@@ -2900,7 +2963,7 @@
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="11" t="s">
         <v>170</v>
       </c>
       <c r="D18" t="s">
@@ -2935,7 +2998,7 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E19" t="s">
@@ -2964,7 +3027,7 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="11" t="s">
         <v>166</v>
       </c>
       <c r="E20" t="s">
@@ -2993,7 +3056,7 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="11" t="s">
         <v>167</v>
       </c>
       <c r="E21" t="s">
@@ -3022,7 +3085,7 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E22" t="s">
@@ -3051,7 +3114,7 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="11" t="s">
         <v>169</v>
       </c>
       <c r="E23" t="s">
@@ -3080,7 +3143,7 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="11" t="s">
         <v>170</v>
       </c>
       <c r="E24" t="s">
@@ -3109,7 +3172,7 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="11" t="s">
         <v>172</v>
       </c>
       <c r="H25">
@@ -3135,7 +3198,7 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="11" t="s">
         <v>173</v>
       </c>
       <c r="H26">
@@ -3161,7 +3224,7 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="11" t="s">
         <v>174</v>
       </c>
       <c r="H27">
@@ -3187,7 +3250,7 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="11" t="s">
         <v>175</v>
       </c>
       <c r="H28">
@@ -3213,7 +3276,7 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="11" t="s">
         <v>176</v>
       </c>
       <c r="H29">
@@ -3239,7 +3302,7 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="11" t="s">
         <v>177</v>
       </c>
       <c r="H30">
@@ -3265,7 +3328,7 @@
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="11" t="s">
         <v>178</v>
       </c>
       <c r="H31">
@@ -3291,7 +3354,7 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="11" t="s">
         <v>179</v>
       </c>
       <c r="H32">
@@ -3317,7 +3380,7 @@
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="11" t="s">
         <v>180</v>
       </c>
       <c r="H33">
@@ -3343,7 +3406,7 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="11" t="s">
         <v>181</v>
       </c>
       <c r="E34" t="s">
@@ -3372,7 +3435,7 @@
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="11" t="s">
         <v>182</v>
       </c>
       <c r="E35" t="s">
@@ -3401,7 +3464,7 @@
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="11" t="s">
         <v>183</v>
       </c>
       <c r="E36" t="s">
@@ -3430,7 +3493,7 @@
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="11" t="s">
         <v>184</v>
       </c>
       <c r="E37" t="s">
@@ -3459,7 +3522,7 @@
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="11" t="s">
         <v>185</v>
       </c>
       <c r="E38" t="s">
@@ -3488,7 +3551,7 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="11" t="s">
         <v>186</v>
       </c>
       <c r="E39" t="s">
@@ -3517,7 +3580,7 @@
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="11" t="s">
         <v>187</v>
       </c>
       <c r="E40" t="s">
@@ -3546,7 +3609,7 @@
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="11" t="s">
         <v>188</v>
       </c>
       <c r="E41" t="s">
@@ -3575,7 +3638,7 @@
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="11" t="s">
         <v>189</v>
       </c>
       <c r="E42" t="s">
@@ -3604,7 +3667,7 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="11" t="s">
         <v>190</v>
       </c>
       <c r="E43" t="s">
@@ -3633,7 +3696,7 @@
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="11" t="s">
         <v>191</v>
       </c>
       <c r="E44" t="s">
@@ -3662,7 +3725,7 @@
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="11" t="s">
         <v>192</v>
       </c>
       <c r="E45" t="s">
@@ -3691,7 +3754,7 @@
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="11" t="s">
         <v>193</v>
       </c>
       <c r="H46">
@@ -3717,7 +3780,7 @@
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="11" t="s">
         <v>194</v>
       </c>
       <c r="H47">
@@ -3743,7 +3806,7 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="11" t="s">
         <v>195</v>
       </c>
       <c r="H48">
@@ -3769,7 +3832,7 @@
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="11" t="s">
         <v>196</v>
       </c>
       <c r="H49">
@@ -3795,7 +3858,7 @@
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H50">
@@ -3821,7 +3884,7 @@
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="11" t="s">
         <v>198</v>
       </c>
       <c r="H51">
@@ -3847,7 +3910,7 @@
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="11" t="s">
         <v>199</v>
       </c>
       <c r="H52">
@@ -3873,7 +3936,7 @@
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="11" t="s">
         <v>200</v>
       </c>
       <c r="H53">
@@ -3899,7 +3962,7 @@
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="11" t="s">
         <v>201</v>
       </c>
       <c r="H54">
@@ -3925,7 +3988,7 @@
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="11" t="s">
         <v>202</v>
       </c>
       <c r="H55">
@@ -3951,7 +4014,7 @@
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="11" t="s">
         <v>203</v>
       </c>
       <c r="H56">
@@ -3977,7 +4040,7 @@
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="11" t="s">
         <v>204</v>
       </c>
       <c r="H57">
@@ -4003,7 +4066,7 @@
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="11" t="s">
         <v>205</v>
       </c>
       <c r="H58">
@@ -4029,7 +4092,7 @@
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="11" t="s">
         <v>206</v>
       </c>
       <c r="H59">
@@ -4055,7 +4118,7 @@
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="11" t="s">
         <v>207</v>
       </c>
       <c r="H60">
@@ -4081,7 +4144,7 @@
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="11" t="s">
         <v>208</v>
       </c>
       <c r="H61">
@@ -4107,7 +4170,7 @@
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="11" t="s">
         <v>209</v>
       </c>
       <c r="H62">
@@ -4133,7 +4196,7 @@
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="11" t="s">
         <v>210</v>
       </c>
       <c r="H63">
@@ -4159,7 +4222,7 @@
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="11" t="s">
         <v>211</v>
       </c>
       <c r="H64">
@@ -4185,7 +4248,7 @@
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="11" t="s">
         <v>212</v>
       </c>
       <c r="H65">
@@ -4211,7 +4274,7 @@
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="11" t="s">
         <v>213</v>
       </c>
       <c r="H66">
@@ -4237,7 +4300,7 @@
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="11" t="s">
         <v>214</v>
       </c>
       <c r="H67">
@@ -4263,7 +4326,7 @@
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="11" t="s">
         <v>215</v>
       </c>
       <c r="H68">
@@ -4289,7 +4352,7 @@
       <c r="B69">
         <v>1</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="11" t="s">
         <v>216</v>
       </c>
       <c r="H69">
@@ -4315,7 +4378,7 @@
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="11" t="s">
         <v>217</v>
       </c>
       <c r="H70">
@@ -4341,7 +4404,7 @@
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="11" t="s">
         <v>218</v>
       </c>
       <c r="H71">
@@ -4367,7 +4430,7 @@
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="11" t="s">
         <v>219</v>
       </c>
       <c r="H72">
@@ -4393,7 +4456,7 @@
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="11" t="s">
         <v>220</v>
       </c>
       <c r="H73">
@@ -4419,7 +4482,7 @@
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="11" t="s">
         <v>221</v>
       </c>
       <c r="H74">
@@ -4445,7 +4508,7 @@
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H75">
@@ -4471,7 +4534,7 @@
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="11" t="s">
         <v>223</v>
       </c>
       <c r="H76">
@@ -4497,7 +4560,7 @@
       <c r="B77">
         <v>1</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="11" t="s">
         <v>224</v>
       </c>
       <c r="H77">
@@ -4523,7 +4586,7 @@
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="11" t="s">
         <v>225</v>
       </c>
       <c r="H78">
@@ -4549,7 +4612,7 @@
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="11" t="s">
         <v>226</v>
       </c>
       <c r="H79">
@@ -4575,7 +4638,7 @@
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="11" t="s">
         <v>227</v>
       </c>
       <c r="H80">
@@ -4601,7 +4664,7 @@
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="11" t="s">
         <v>228</v>
       </c>
       <c r="H81">
@@ -4627,7 +4690,7 @@
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="11" t="s">
         <v>229</v>
       </c>
       <c r="H82">
@@ -4653,7 +4716,7 @@
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="11" t="s">
         <v>230</v>
       </c>
       <c r="H83">
@@ -4679,7 +4742,7 @@
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H84">
@@ -4705,7 +4768,7 @@
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="11" t="s">
         <v>232</v>
       </c>
       <c r="H85">
@@ -4731,7 +4794,7 @@
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="11" t="s">
         <v>233</v>
       </c>
       <c r="H86">
@@ -4757,7 +4820,7 @@
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H87">
@@ -4783,7 +4846,7 @@
       <c r="B88">
         <v>1</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="11" t="s">
         <v>235</v>
       </c>
       <c r="H88">
@@ -4809,7 +4872,7 @@
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="11" t="s">
         <v>236</v>
       </c>
       <c r="H89">
@@ -4835,7 +4898,7 @@
       <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="11" t="s">
         <v>237</v>
       </c>
       <c r="H90">
@@ -4861,7 +4924,7 @@
       <c r="B91">
         <v>1</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="11" t="s">
         <v>238</v>
       </c>
       <c r="H91">
@@ -4887,7 +4950,7 @@
       <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="11" t="s">
         <v>239</v>
       </c>
       <c r="H92">
@@ -4913,7 +4976,7 @@
       <c r="B93">
         <v>1</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="11" t="s">
         <v>240</v>
       </c>
       <c r="H93">
@@ -4939,7 +5002,7 @@
       <c r="B94">
         <v>1</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="11" t="s">
         <v>241</v>
       </c>
       <c r="H94">
@@ -4965,7 +5028,7 @@
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="11" t="s">
         <v>242</v>
       </c>
       <c r="H95">
@@ -4991,7 +5054,7 @@
       <c r="B96">
         <v>1</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="11" t="s">
         <v>243</v>
       </c>
       <c r="H96">
@@ -5017,7 +5080,7 @@
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H97">
@@ -5043,7 +5106,7 @@
       <c r="B98">
         <v>1</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="11" t="s">
         <v>245</v>
       </c>
       <c r="H98">
@@ -5069,7 +5132,7 @@
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="11" t="s">
         <v>246</v>
       </c>
       <c r="H99">
@@ -5095,7 +5158,7 @@
       <c r="B100">
         <v>1</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="11" t="s">
         <v>247</v>
       </c>
       <c r="H100">
@@ -5121,7 +5184,7 @@
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="11" t="s">
         <v>248</v>
       </c>
       <c r="H101">
@@ -5147,7 +5210,7 @@
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="11" t="s">
         <v>249</v>
       </c>
       <c r="H102">
@@ -5173,7 +5236,7 @@
       <c r="B103">
         <v>1</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="11" t="s">
         <v>250</v>
       </c>
       <c r="H103">
@@ -5199,7 +5262,7 @@
       <c r="B104">
         <v>1</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H104">
@@ -5225,7 +5288,7 @@
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="11" t="s">
         <v>252</v>
       </c>
       <c r="H105">
@@ -5251,7 +5314,7 @@
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="11" t="s">
         <v>253</v>
       </c>
       <c r="H106">
@@ -5277,7 +5340,7 @@
       <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="11" t="s">
         <v>254</v>
       </c>
       <c r="H107">
@@ -5303,7 +5366,7 @@
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="11" t="s">
         <v>255</v>
       </c>
       <c r="H108">
@@ -5329,7 +5392,7 @@
       <c r="B109">
         <v>1</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="11" t="s">
         <v>256</v>
       </c>
       <c r="H109">
@@ -5355,7 +5418,7 @@
       <c r="B110">
         <v>1</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="11" t="s">
         <v>257</v>
       </c>
       <c r="H110">
@@ -5381,7 +5444,7 @@
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="11" t="s">
         <v>258</v>
       </c>
       <c r="H111">
@@ -5407,7 +5470,7 @@
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="11" t="s">
         <v>259</v>
       </c>
       <c r="H112">
@@ -5433,7 +5496,7 @@
       <c r="B113">
         <v>1</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="11" t="s">
         <v>260</v>
       </c>
       <c r="H113">
@@ -5459,7 +5522,7 @@
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="11" t="s">
         <v>261</v>
       </c>
       <c r="H114">
@@ -5485,7 +5548,7 @@
       <c r="B115">
         <v>1</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="11" t="s">
         <v>262</v>
       </c>
       <c r="H115">
@@ -5511,7 +5574,7 @@
       <c r="B116">
         <v>1</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="11" t="s">
         <v>263</v>
       </c>
       <c r="H116">
@@ -5537,7 +5600,7 @@
       <c r="B117">
         <v>3</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="11" t="s">
         <v>264</v>
       </c>
       <c r="H117">
@@ -5569,7 +5632,7 @@
       <c r="B118">
         <v>3</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="11" t="s">
         <v>265</v>
       </c>
       <c r="H118">
@@ -5601,7 +5664,7 @@
       <c r="B119">
         <v>3</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="11" t="s">
         <v>266</v>
       </c>
       <c r="H119">
@@ -5633,7 +5696,7 @@
       <c r="B120">
         <v>3</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="11" t="s">
         <v>267</v>
       </c>
       <c r="H120">
@@ -5665,7 +5728,7 @@
       <c r="B121">
         <v>3</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="11" t="s">
         <v>268</v>
       </c>
       <c r="H121">
@@ -5697,7 +5760,7 @@
       <c r="B122">
         <v>3</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="11" t="s">
         <v>269</v>
       </c>
       <c r="H122">
@@ -5729,7 +5792,7 @@
       <c r="B123">
         <v>4</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="11" t="s">
         <v>270</v>
       </c>
       <c r="G123" t="s">
@@ -5764,7 +5827,7 @@
       <c r="B124">
         <v>4</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="11" t="s">
         <v>271</v>
       </c>
       <c r="G124" t="s">
@@ -5799,7 +5862,7 @@
       <c r="B125">
         <v>4</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="11" t="s">
         <v>272</v>
       </c>
       <c r="G125" t="s">
@@ -5834,7 +5897,7 @@
       <c r="B126">
         <v>4</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="11" t="s">
         <v>273</v>
       </c>
       <c r="G126" t="s">
@@ -5869,7 +5932,7 @@
       <c r="B127">
         <v>4</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="11" t="s">
         <v>274</v>
       </c>
       <c r="G127" t="s">
@@ -5904,7 +5967,7 @@
       <c r="B128">
         <v>4</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="11" t="s">
         <v>275</v>
       </c>
       <c r="G128" t="s">
@@ -5942,7 +6005,7 @@
       <c r="B129">
         <v>4</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="11" t="s">
         <v>276</v>
       </c>
       <c r="G129" t="s">
@@ -5980,7 +6043,7 @@
       <c r="B130">
         <v>1</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="11" t="s">
         <v>277</v>
       </c>
       <c r="H130">
@@ -6006,7 +6069,7 @@
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="11" t="s">
         <v>278</v>
       </c>
       <c r="H131">
@@ -6032,7 +6095,7 @@
       <c r="B132">
         <v>1</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="11" t="s">
         <v>279</v>
       </c>
       <c r="H132">
@@ -6058,7 +6121,7 @@
       <c r="B133">
         <v>1</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="11" t="s">
         <v>280</v>
       </c>
       <c r="H133">
@@ -6084,7 +6147,7 @@
       <c r="B134">
         <v>1</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="11" t="s">
         <v>281</v>
       </c>
       <c r="H134">
@@ -6110,7 +6173,7 @@
       <c r="B135">
         <v>1</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="11" t="s">
         <v>282</v>
       </c>
       <c r="H135">
@@ -6136,7 +6199,7 @@
       <c r="B136">
         <v>1</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="11" t="s">
         <v>283</v>
       </c>
       <c r="H136">
@@ -6162,7 +6225,7 @@
       <c r="B137">
         <v>1</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="11" t="s">
         <v>284</v>
       </c>
       <c r="H137">
@@ -6188,7 +6251,7 @@
       <c r="B138">
         <v>1</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="11" t="s">
         <v>285</v>
       </c>
       <c r="H138">
@@ -6214,7 +6277,7 @@
       <c r="B139">
         <v>1</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="11" t="s">
         <v>286</v>
       </c>
       <c r="H139">
@@ -6240,7 +6303,7 @@
       <c r="B140">
         <v>1</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="11" t="s">
         <v>287</v>
       </c>
       <c r="H140">
@@ -6266,7 +6329,7 @@
       <c r="B141">
         <v>1</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="11" t="s">
         <v>288</v>
       </c>
       <c r="H141">
@@ -6292,7 +6355,7 @@
       <c r="B142">
         <v>1</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="11" t="s">
         <v>289</v>
       </c>
       <c r="H142">
@@ -6318,7 +6381,7 @@
       <c r="B143">
         <v>1</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="11" t="s">
         <v>290</v>
       </c>
       <c r="H143">
@@ -6344,7 +6407,7 @@
       <c r="B144">
         <v>1</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="11" t="s">
         <v>291</v>
       </c>
       <c r="H144">
@@ -6370,7 +6433,7 @@
       <c r="B145">
         <v>1</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="11" t="s">
         <v>292</v>
       </c>
       <c r="H145">
@@ -6396,7 +6459,7 @@
       <c r="B146">
         <v>1</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="11" t="s">
         <v>293</v>
       </c>
       <c r="H146">
@@ -6422,7 +6485,7 @@
       <c r="B147">
         <v>1</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="11" t="s">
         <v>294</v>
       </c>
       <c r="H147">
@@ -6448,7 +6511,7 @@
       <c r="B148">
         <v>1</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="11" t="s">
         <v>295</v>
       </c>
       <c r="H148">
@@ -6474,7 +6537,7 @@
       <c r="B149">
         <v>1</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="11" t="s">
         <v>296</v>
       </c>
       <c r="H149">
@@ -6500,7 +6563,7 @@
       <c r="B150">
         <v>1</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="11" t="s">
         <v>297</v>
       </c>
       <c r="H150" s="3" t="s">
@@ -6523,7 +6586,7 @@
       <c r="B151">
         <v>1</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="11" t="s">
         <v>298</v>
       </c>
       <c r="E151" t="s">
@@ -6552,7 +6615,7 @@
       <c r="B152">
         <v>1</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="11" t="s">
         <v>299</v>
       </c>
       <c r="E152" t="s">
@@ -6581,7 +6644,7 @@
       <c r="B153">
         <v>1</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="11" t="s">
         <v>300</v>
       </c>
       <c r="E153" t="s">
@@ -6610,7 +6673,7 @@
       <c r="B154">
         <v>1</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="11" t="s">
         <v>301</v>
       </c>
       <c r="E154" t="s">
@@ -6639,7 +6702,7 @@
       <c r="B155">
         <v>1</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="11" t="s">
         <v>302</v>
       </c>
       <c r="E155" t="s">
@@ -6668,7 +6731,7 @@
       <c r="B156">
         <v>1</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="11" t="s">
         <v>303</v>
       </c>
       <c r="E156" t="s">
@@ -6697,7 +6760,7 @@
       <c r="B157">
         <v>1</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="11" t="s">
         <v>304</v>
       </c>
       <c r="E157" t="s">
@@ -6726,7 +6789,7 @@
       <c r="B158">
         <v>1</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="11" t="s">
         <v>305</v>
       </c>
       <c r="E158" t="s">
@@ -6755,7 +6818,7 @@
       <c r="B159">
         <v>1</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="11" t="s">
         <v>306</v>
       </c>
       <c r="E159" t="s">
@@ -6784,7 +6847,7 @@
       <c r="B160">
         <v>1</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="11" t="s">
         <v>307</v>
       </c>
       <c r="E160" t="s">
@@ -6813,7 +6876,7 @@
       <c r="B161">
         <v>1</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="11" t="s">
         <v>308</v>
       </c>
       <c r="E161" t="s">
@@ -6842,7 +6905,7 @@
       <c r="B162">
         <v>1</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="11" t="s">
         <v>309</v>
       </c>
       <c r="E162" t="s">
@@ -6871,7 +6934,7 @@
       <c r="B163">
         <v>1</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="11" t="s">
         <v>310</v>
       </c>
       <c r="H163">
@@ -6897,7 +6960,7 @@
       <c r="B164">
         <v>1</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="11" t="s">
         <v>311</v>
       </c>
       <c r="H164">
@@ -6923,7 +6986,7 @@
       <c r="B165">
         <v>1</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="11" t="s">
         <v>312</v>
       </c>
       <c r="H165">
@@ -6949,7 +7012,7 @@
       <c r="B166">
         <v>1</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="11" t="s">
         <v>313</v>
       </c>
       <c r="H166">
@@ -6975,7 +7038,7 @@
       <c r="B167">
         <v>1</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="11" t="s">
         <v>314</v>
       </c>
       <c r="H167">
@@ -7001,7 +7064,7 @@
       <c r="B168">
         <v>1</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="11" t="s">
         <v>315</v>
       </c>
       <c r="H168">
@@ -7027,7 +7090,7 @@
       <c r="B169">
         <v>1</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="11" t="s">
         <v>316</v>
       </c>
       <c r="H169">
@@ -7053,7 +7116,7 @@
       <c r="B170">
         <v>1</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="11" t="s">
         <v>317</v>
       </c>
       <c r="H170">
@@ -7079,7 +7142,7 @@
       <c r="B171">
         <v>1</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="11" t="s">
         <v>318</v>
       </c>
       <c r="H171">
@@ -7105,7 +7168,7 @@
       <c r="B172">
         <v>1</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="11" t="s">
         <v>319</v>
       </c>
       <c r="H172">
@@ -7131,7 +7194,7 @@
       <c r="B173">
         <v>1</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="11" t="s">
         <v>320</v>
       </c>
       <c r="H173">
@@ -7157,7 +7220,7 @@
       <c r="B174">
         <v>1</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="11" t="s">
         <v>321</v>
       </c>
       <c r="H174">
@@ -7183,7 +7246,7 @@
       <c r="B175">
         <v>1</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="11" t="s">
         <v>322</v>
       </c>
       <c r="H175">
@@ -7209,7 +7272,7 @@
       <c r="B176">
         <v>1</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="11" t="s">
         <v>323</v>
       </c>
       <c r="H176">
@@ -7235,7 +7298,7 @@
       <c r="B177">
         <v>1</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="11" t="s">
         <v>324</v>
       </c>
       <c r="H177">
@@ -7261,7 +7324,7 @@
       <c r="B178">
         <v>1</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="11" t="s">
         <v>325</v>
       </c>
       <c r="H178">
@@ -7287,7 +7350,7 @@
       <c r="B179">
         <v>1</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="11" t="s">
         <v>326</v>
       </c>
       <c r="H179">
@@ -7313,7 +7376,7 @@
       <c r="B180">
         <v>1</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="11" t="s">
         <v>327</v>
       </c>
       <c r="H180">
@@ -7339,7 +7402,7 @@
       <c r="B181">
         <v>1</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="11" t="s">
         <v>328</v>
       </c>
       <c r="H181">
@@ -7365,7 +7428,7 @@
       <c r="B182">
         <v>1</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="11" t="s">
         <v>329</v>
       </c>
       <c r="H182">
@@ -7391,7 +7454,7 @@
       <c r="B183">
         <v>1</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="11" t="s">
         <v>330</v>
       </c>
       <c r="H183">
@@ -7417,7 +7480,7 @@
       <c r="B184" s="22">
         <v>1</v>
       </c>
-      <c r="C184" s="22" t="s">
+      <c r="C184" s="26" t="s">
         <v>364</v>
       </c>
       <c r="H184" s="22">
@@ -7443,7 +7506,7 @@
       <c r="B185" s="22">
         <v>1</v>
       </c>
-      <c r="C185" s="22" t="s">
+      <c r="C185" s="26" t="s">
         <v>365</v>
       </c>
       <c r="H185" s="22">
@@ -7469,7 +7532,7 @@
       <c r="B186" s="22">
         <v>1</v>
       </c>
-      <c r="C186" s="22" t="s">
+      <c r="C186" s="26" t="s">
         <v>366</v>
       </c>
       <c r="H186" s="22">
@@ -7495,7 +7558,7 @@
       <c r="B187" s="22">
         <v>1</v>
       </c>
-      <c r="C187" s="22" t="s">
+      <c r="C187" s="26" t="s">
         <v>367</v>
       </c>
       <c r="H187" s="22">
@@ -7521,7 +7584,7 @@
       <c r="B188" s="22">
         <v>1</v>
       </c>
-      <c r="C188" s="22" t="s">
+      <c r="C188" s="26" t="s">
         <v>368</v>
       </c>
       <c r="H188" s="22">
@@ -7547,7 +7610,7 @@
       <c r="B189" s="22">
         <v>1</v>
       </c>
-      <c r="C189" s="22" t="s">
+      <c r="C189" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H189" s="22">
@@ -7573,7 +7636,7 @@
       <c r="B190" s="22">
         <v>1</v>
       </c>
-      <c r="C190" s="22" t="s">
+      <c r="C190" s="26" t="s">
         <v>370</v>
       </c>
       <c r="H190" s="22">
@@ -7599,7 +7662,7 @@
       <c r="B191" s="22">
         <v>1</v>
       </c>
-      <c r="C191" s="22" t="s">
+      <c r="C191" s="26" t="s">
         <v>371</v>
       </c>
       <c r="H191" s="22">
@@ -7625,7 +7688,7 @@
       <c r="B192" s="22">
         <v>1</v>
       </c>
-      <c r="C192" s="22" t="s">
+      <c r="C192" s="26" t="s">
         <v>372</v>
       </c>
       <c r="H192" s="22">
@@ -7651,7 +7714,7 @@
       <c r="B193" s="22">
         <v>1</v>
       </c>
-      <c r="C193" s="22" t="s">
+      <c r="C193" s="26" t="s">
         <v>373</v>
       </c>
       <c r="H193" s="22">
@@ -7677,7 +7740,7 @@
       <c r="B194" s="22">
         <v>1</v>
       </c>
-      <c r="C194" s="22" t="s">
+      <c r="C194" s="26" t="s">
         <v>382</v>
       </c>
       <c r="H194" s="22">
@@ -7703,7 +7766,7 @@
       <c r="B195" s="22">
         <v>1</v>
       </c>
-      <c r="C195" s="22" t="s">
+      <c r="C195" s="26" t="s">
         <v>383</v>
       </c>
       <c r="H195" s="22">
@@ -7729,7 +7792,7 @@
       <c r="B196" s="22">
         <v>1</v>
       </c>
-      <c r="C196" s="22" t="s">
+      <c r="C196" s="26" t="s">
         <v>384</v>
       </c>
       <c r="H196" s="22">
@@ -7755,7 +7818,7 @@
       <c r="B197" s="22">
         <v>1</v>
       </c>
-      <c r="C197" s="22" t="s">
+      <c r="C197" s="26" t="s">
         <v>385</v>
       </c>
       <c r="H197" s="22">
@@ -7781,7 +7844,7 @@
       <c r="B198" s="22">
         <v>1</v>
       </c>
-      <c r="C198" s="22" t="s">
+      <c r="C198" s="26" t="s">
         <v>386</v>
       </c>
       <c r="H198" s="22">
@@ -7807,7 +7870,7 @@
       <c r="B199" s="22">
         <v>1</v>
       </c>
-      <c r="C199" s="22" t="s">
+      <c r="C199" s="26" t="s">
         <v>387</v>
       </c>
       <c r="H199" s="22">
@@ -7833,7 +7896,7 @@
       <c r="B200" s="22">
         <v>1</v>
       </c>
-      <c r="C200" s="22" t="s">
+      <c r="C200" s="26" t="s">
         <v>388</v>
       </c>
       <c r="H200" s="22">
@@ -7859,7 +7922,7 @@
       <c r="B201" s="22">
         <v>1</v>
       </c>
-      <c r="C201" s="22" t="s">
+      <c r="C201" s="26" t="s">
         <v>389</v>
       </c>
       <c r="H201" s="22">
@@ -7885,7 +7948,7 @@
       <c r="B202" s="17">
         <v>1</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="21" t="s">
         <v>392</v>
       </c>
       <c r="D202" s="17"/>
@@ -7921,7 +7984,7 @@
       <c r="B203" s="17">
         <v>1</v>
       </c>
-      <c r="C203" s="17" t="s">
+      <c r="C203" s="21" t="s">
         <v>393</v>
       </c>
       <c r="D203" s="17"/>
@@ -7957,7 +8020,7 @@
       <c r="B204" s="17">
         <v>1</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="C204" s="21" t="s">
         <v>394</v>
       </c>
       <c r="D204" s="17"/>
@@ -7993,7 +8056,7 @@
       <c r="B205" s="17">
         <v>1</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C205" s="21" t="s">
         <v>395</v>
       </c>
       <c r="D205" s="17"/>
@@ -8029,7 +8092,7 @@
       <c r="B206" s="17">
         <v>1</v>
       </c>
-      <c r="C206" s="17" t="s">
+      <c r="C206" s="21" t="s">
         <v>396</v>
       </c>
       <c r="D206" s="17"/>
@@ -8065,7 +8128,7 @@
       <c r="B207" s="17">
         <v>1</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C207" s="21" t="s">
         <v>397</v>
       </c>
       <c r="D207" s="17"/>
@@ -8101,7 +8164,7 @@
       <c r="B208" s="17">
         <v>1</v>
       </c>
-      <c r="C208" s="17" t="s">
+      <c r="C208" s="21" t="s">
         <v>398</v>
       </c>
       <c r="D208" s="17"/>
@@ -8137,7 +8200,7 @@
       <c r="B209" s="17">
         <v>1</v>
       </c>
-      <c r="C209" s="17" t="s">
+      <c r="C209" s="21" t="s">
         <v>399</v>
       </c>
       <c r="D209" s="17"/>
@@ -8173,7 +8236,7 @@
       <c r="B210" s="27">
         <v>1</v>
       </c>
-      <c r="C210" s="27" t="s">
+      <c r="C210" s="32" t="s">
         <v>409</v>
       </c>
       <c r="D210" s="27"/>
@@ -8209,7 +8272,7 @@
       <c r="B211" s="27">
         <v>1</v>
       </c>
-      <c r="C211" s="27" t="s">
+      <c r="C211" s="32" t="s">
         <v>410</v>
       </c>
       <c r="D211" s="27"/>
@@ -8245,7 +8308,7 @@
       <c r="B212" s="27">
         <v>1</v>
       </c>
-      <c r="C212" s="27" t="s">
+      <c r="C212" s="32" t="s">
         <v>411</v>
       </c>
       <c r="D212" s="27"/>
@@ -8281,7 +8344,7 @@
       <c r="B213" s="27">
         <v>1</v>
       </c>
-      <c r="C213" s="27" t="s">
+      <c r="C213" s="32" t="s">
         <v>412</v>
       </c>
       <c r="D213" s="27"/>
@@ -8317,7 +8380,7 @@
       <c r="B214" s="27">
         <v>1</v>
       </c>
-      <c r="C214" s="27" t="s">
+      <c r="C214" s="32" t="s">
         <v>413</v>
       </c>
       <c r="D214" s="27"/>
@@ -8353,7 +8416,7 @@
       <c r="B215" s="27">
         <v>1</v>
       </c>
-      <c r="C215" s="27" t="s">
+      <c r="C215" s="32" t="s">
         <v>414</v>
       </c>
       <c r="D215" s="27"/>
@@ -8389,7 +8452,7 @@
       <c r="B216" s="27">
         <v>1</v>
       </c>
-      <c r="C216" s="27" t="s">
+      <c r="C216" s="32" t="s">
         <v>415</v>
       </c>
       <c r="D216" s="27"/>
@@ -8425,7 +8488,7 @@
       <c r="B217" s="27">
         <v>1</v>
       </c>
-      <c r="C217" s="27" t="s">
+      <c r="C217" s="32" t="s">
         <v>416</v>
       </c>
       <c r="D217" s="27"/>
@@ -8455,66 +8518,330 @@
       </c>
     </row>
     <row r="218" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J218" s="24"/>
-      <c r="Q218" s="26"/>
+      <c r="A218" s="33">
+        <v>217</v>
+      </c>
+      <c r="B218" s="33">
+        <v>1</v>
+      </c>
+      <c r="C218" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
+      <c r="F218" s="33"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W218,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="I218" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W218,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="J218" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W218,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K218" s="33"/>
+      <c r="L218" s="33"/>
+      <c r="M218" s="33"/>
+      <c r="N218" s="33"/>
+      <c r="O218" s="33"/>
+      <c r="P218" s="33"/>
+      <c r="Q218" s="38">
+        <v>191</v>
+      </c>
     </row>
     <row r="219" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J219" s="24"/>
-      <c r="Q219" s="26"/>
+      <c r="A219" s="33">
+        <v>218</v>
+      </c>
+      <c r="B219" s="33">
+        <v>1</v>
+      </c>
+      <c r="C219" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="33"/>
+      <c r="G219" s="33"/>
+      <c r="H219" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W219,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="I219" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W219,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="J219" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W219,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K219" s="33"/>
+      <c r="L219" s="33"/>
+      <c r="M219" s="33"/>
+      <c r="N219" s="33"/>
+      <c r="O219" s="33"/>
+      <c r="P219" s="33"/>
+      <c r="Q219" s="38">
+        <v>192</v>
+      </c>
     </row>
     <row r="220" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J220" s="24"/>
-      <c r="Q220" s="26"/>
+      <c r="A220" s="33">
+        <v>219</v>
+      </c>
+      <c r="B220" s="33">
+        <v>1</v>
+      </c>
+      <c r="C220" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="D220" s="33"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="33"/>
+      <c r="G220" s="33"/>
+      <c r="H220" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W220,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="I220" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W220,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="J220" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W220,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K220" s="33"/>
+      <c r="L220" s="33"/>
+      <c r="M220" s="33"/>
+      <c r="N220" s="33"/>
+      <c r="O220" s="33"/>
+      <c r="P220" s="33"/>
+      <c r="Q220" s="38">
+        <v>193</v>
+      </c>
     </row>
     <row r="221" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J221" s="24"/>
-      <c r="Q221" s="26"/>
+      <c r="A221" s="33">
+        <v>220</v>
+      </c>
+      <c r="B221" s="33">
+        <v>1</v>
+      </c>
+      <c r="C221" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D221" s="33"/>
+      <c r="E221" s="33"/>
+      <c r="F221" s="33"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W221,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="I221" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W221,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="J221" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W221,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K221" s="33"/>
+      <c r="L221" s="33"/>
+      <c r="M221" s="33"/>
+      <c r="N221" s="33"/>
+      <c r="O221" s="33"/>
+      <c r="P221" s="33"/>
+      <c r="Q221" s="38">
+        <v>194</v>
+      </c>
     </row>
     <row r="222" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J222" s="24"/>
-      <c r="Q222" s="26"/>
+      <c r="A222" s="33">
+        <v>221</v>
+      </c>
+      <c r="B222" s="33">
+        <v>1</v>
+      </c>
+      <c r="C222" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="D222" s="33"/>
+      <c r="E222" s="33"/>
+      <c r="F222" s="33"/>
+      <c r="G222" s="33"/>
+      <c r="H222" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W222,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="I222" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W222,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="J222" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W222,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K222" s="33"/>
+      <c r="L222" s="33"/>
+      <c r="M222" s="33"/>
+      <c r="N222" s="33"/>
+      <c r="O222" s="33"/>
+      <c r="P222" s="33"/>
+      <c r="Q222" s="38">
+        <v>195</v>
+      </c>
     </row>
     <row r="223" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J223" s="24"/>
-      <c r="Q223" s="26"/>
+      <c r="A223" s="33">
+        <v>222</v>
+      </c>
+      <c r="B223" s="33">
+        <v>1</v>
+      </c>
+      <c r="C223" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="D223" s="33"/>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33"/>
+      <c r="G223" s="33"/>
+      <c r="H223" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W223,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="I223" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W223,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="J223" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W223,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K223" s="33"/>
+      <c r="L223" s="33"/>
+      <c r="M223" s="33"/>
+      <c r="N223" s="33"/>
+      <c r="O223" s="33"/>
+      <c r="P223" s="33"/>
+      <c r="Q223" s="38">
+        <v>196</v>
+      </c>
     </row>
     <row r="224" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J224" s="24"/>
-      <c r="Q224" s="26"/>
-    </row>
-    <row r="225" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J225" s="24"/>
-      <c r="Q225" s="26"/>
-    </row>
-    <row r="226" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="33">
+        <v>223</v>
+      </c>
+      <c r="B224" s="33">
+        <v>1</v>
+      </c>
+      <c r="C224" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="D224" s="33"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="33"/>
+      <c r="G224" s="33"/>
+      <c r="H224" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W224,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>350</v>
+      </c>
+      <c r="I224" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W224,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>350</v>
+      </c>
+      <c r="J224" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W224,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K224" s="33"/>
+      <c r="L224" s="33"/>
+      <c r="M224" s="33"/>
+      <c r="N224" s="33"/>
+      <c r="O224" s="33"/>
+      <c r="P224" s="33"/>
+      <c r="Q224" s="38">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="33">
+        <v>224</v>
+      </c>
+      <c r="B225" s="33">
+        <v>1</v>
+      </c>
+      <c r="C225" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="D225" s="33"/>
+      <c r="E225" s="33"/>
+      <c r="F225" s="33"/>
+      <c r="G225" s="33"/>
+      <c r="H225" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W225,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>450</v>
+      </c>
+      <c r="I225" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W225,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>450</v>
+      </c>
+      <c r="J225" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W225,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K225" s="33"/>
+      <c r="L225" s="33"/>
+      <c r="M225" s="33"/>
+      <c r="N225" s="33"/>
+      <c r="O225" s="33"/>
+      <c r="P225" s="33"/>
+      <c r="Q225" s="38">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C226" s="26"/>
       <c r="J226" s="24"/>
       <c r="Q226" s="26"/>
     </row>
-    <row r="227" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C227" s="26"/>
       <c r="J227" s="24"/>
       <c r="Q227" s="26"/>
     </row>
-    <row r="228" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C228" s="26"/>
       <c r="J228" s="24"/>
       <c r="Q228" s="26"/>
     </row>
-    <row r="229" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C229" s="26"/>
       <c r="J229" s="24"/>
       <c r="Q229" s="26"/>
     </row>
-    <row r="230" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C230" s="26"/>
       <c r="J230" s="24"/>
       <c r="Q230" s="26"/>
     </row>
-    <row r="231" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C231" s="26"/>
       <c r="J231" s="24"/>
       <c r="Q231" s="26"/>
     </row>
-    <row r="232" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C232" s="26"/>
       <c r="J232" s="24"/>
       <c r="Q232" s="26"/>
     </row>
-    <row r="233" spans="10:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C233" s="26"/>
       <c r="J233" s="24"/>
       <c r="Q233" s="26"/>
     </row>
@@ -8704,8 +9031,8 @@
   <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G196" sqref="G196"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17767,79 +18094,391 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="23"/>
-      <c r="B192" s="24"/>
-      <c r="C192" s="23"/>
-      <c r="D192" s="25"/>
-      <c r="F192" s="23"/>
-      <c r="G192" s="24"/>
-      <c r="H192" s="23"/>
-    </row>
-    <row r="193" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="23"/>
-      <c r="B193" s="24"/>
-      <c r="C193" s="23"/>
-      <c r="D193" s="25"/>
-      <c r="F193" s="23"/>
-      <c r="G193" s="24"/>
-      <c r="H193" s="23"/>
-    </row>
-    <row r="194" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="23"/>
-      <c r="B194" s="24"/>
-      <c r="C194" s="23"/>
-      <c r="D194" s="25"/>
-      <c r="F194" s="23"/>
-      <c r="G194" s="24"/>
-      <c r="H194" s="23"/>
-    </row>
-    <row r="195" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="23"/>
-      <c r="B195" s="24"/>
-      <c r="C195" s="23"/>
-      <c r="D195" s="25"/>
-      <c r="F195" s="23"/>
-      <c r="G195" s="24"/>
-      <c r="H195" s="23"/>
-    </row>
-    <row r="196" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="23"/>
-      <c r="B196" s="24"/>
-      <c r="C196" s="23"/>
-      <c r="D196" s="25"/>
-      <c r="F196" s="23"/>
-      <c r="G196" s="24"/>
-      <c r="H196" s="23"/>
-    </row>
-    <row r="197" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="23"/>
-      <c r="B197" s="24"/>
-      <c r="C197" s="23"/>
-      <c r="D197" s="25"/>
-      <c r="F197" s="23"/>
-      <c r="G197" s="24"/>
-      <c r="H197" s="23"/>
-    </row>
-    <row r="198" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="23"/>
-      <c r="B198" s="24"/>
-      <c r="C198" s="23"/>
-      <c r="D198" s="25"/>
-      <c r="F198" s="23"/>
-      <c r="G198" s="24"/>
-      <c r="H198" s="23"/>
-    </row>
-    <row r="199" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="23"/>
-      <c r="B199" s="24"/>
-      <c r="C199" s="23"/>
-      <c r="D199" s="25"/>
-      <c r="F199" s="23"/>
-      <c r="G199" s="24"/>
-      <c r="H199" s="23"/>
-    </row>
-    <row r="200" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="23">
+        <v>191</v>
+      </c>
+      <c r="B192" s="36">
+        <v>6</v>
+      </c>
+      <c r="C192" s="35">
+        <v>55</v>
+      </c>
+      <c r="D192" s="37"/>
+      <c r="E192" s="33">
+        <f>LOOKUP(use_fish!B192,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C192,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="F192" s="35">
+        <f t="shared" ref="F192:F199" si="12">1/E192</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G192" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H192" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B192,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C192,activity!A:A,0)),"")</f>
+        <v>蓝灯鱼+临时活动</v>
+      </c>
+      <c r="I192" s="33">
+        <f>LOOKUP(use_fish!B192,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C192,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="J192" s="33">
+        <v>1</v>
+      </c>
+      <c r="K192" s="33">
+        <f>LOOKUP(use_fish!B192,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L192" s="33">
+        <f t="shared" ref="L192:L199" si="13">I192</f>
+        <v>30</v>
+      </c>
+      <c r="M192" s="33">
+        <v>1</v>
+      </c>
+      <c r="N192" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="23">
+        <v>192</v>
+      </c>
+      <c r="B193" s="36">
+        <v>7</v>
+      </c>
+      <c r="C193" s="35">
+        <v>55</v>
+      </c>
+      <c r="D193" s="37"/>
+      <c r="E193" s="33">
+        <f>LOOKUP(use_fish!B193,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C193,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="F193" s="35">
+        <f t="shared" si="12"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G193" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H193" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B193,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C193,activity!A:A,0)),"")</f>
+        <v>红杉鱼+临时活动</v>
+      </c>
+      <c r="I193" s="33">
+        <f>LOOKUP(use_fish!B193,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C193,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="J193" s="33">
+        <v>1</v>
+      </c>
+      <c r="K193" s="33">
+        <f>LOOKUP(use_fish!B193,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L193" s="33">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="M193" s="33">
+        <v>1</v>
+      </c>
+      <c r="N193" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="23">
+        <v>193</v>
+      </c>
+      <c r="B194" s="36">
+        <v>8</v>
+      </c>
+      <c r="C194" s="35">
+        <v>55</v>
+      </c>
+      <c r="D194" s="37"/>
+      <c r="E194" s="33">
+        <f>LOOKUP(use_fish!B194,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C194,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="F194" s="35">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="G194" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H194" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B194,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C194,activity!A:A,0)),"")</f>
+        <v>海龟+临时活动</v>
+      </c>
+      <c r="I194" s="33">
+        <f>LOOKUP(use_fish!B194,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C194,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="J194" s="33">
+        <v>1</v>
+      </c>
+      <c r="K194" s="33">
+        <f>LOOKUP(use_fish!B194,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L194" s="33">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="M194" s="33">
+        <v>1</v>
+      </c>
+      <c r="N194" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="23">
+        <v>194</v>
+      </c>
+      <c r="B195" s="36">
+        <v>9</v>
+      </c>
+      <c r="C195" s="35">
+        <v>55</v>
+      </c>
+      <c r="D195" s="37"/>
+      <c r="E195" s="33">
+        <f>LOOKUP(use_fish!B195,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C195,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="F195" s="35">
+        <f t="shared" si="12"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G195" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H195" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B195,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C195,activity!A:A,0)),"")</f>
+        <v>灯笼鱼+临时活动</v>
+      </c>
+      <c r="I195" s="33">
+        <f>LOOKUP(use_fish!B195,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C195,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="J195" s="33">
+        <v>1</v>
+      </c>
+      <c r="K195" s="33">
+        <f>LOOKUP(use_fish!B195,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L195" s="33">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="M195" s="33">
+        <v>1</v>
+      </c>
+      <c r="N195" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="23">
+        <v>195</v>
+      </c>
+      <c r="B196" s="36">
+        <v>10</v>
+      </c>
+      <c r="C196" s="35">
+        <v>55</v>
+      </c>
+      <c r="D196" s="37"/>
+      <c r="E196" s="33">
+        <f>LOOKUP(use_fish!B196,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C196,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="F196" s="35">
+        <f t="shared" si="12"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="G196" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H196" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B196,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C196,activity!A:A,0)),"")</f>
+        <v>魔鬼鱼+临时活动</v>
+      </c>
+      <c r="I196" s="33">
+        <f>LOOKUP(use_fish!B196,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C196,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="J196" s="33">
+        <v>1</v>
+      </c>
+      <c r="K196" s="33">
+        <f>LOOKUP(use_fish!B196,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L196" s="33">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="M196" s="33">
+        <v>1</v>
+      </c>
+      <c r="N196" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="23">
+        <v>196</v>
+      </c>
+      <c r="B197" s="36">
+        <v>35</v>
+      </c>
+      <c r="C197" s="35">
+        <v>52</v>
+      </c>
+      <c r="D197" s="37"/>
+      <c r="E197" s="33">
+        <f>LOOKUP(use_fish!B197,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C197,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="F197" s="35">
+        <f t="shared" si="12"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G197" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H197" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B197,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C197,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I197" s="33">
+        <f>LOOKUP(use_fish!B197,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C197,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="J197" s="33">
+        <v>1</v>
+      </c>
+      <c r="K197" s="33">
+        <f>LOOKUP(use_fish!B197,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L197" s="33">
+        <f t="shared" si="13"/>
+        <v>250</v>
+      </c>
+      <c r="M197" s="33">
+        <v>1</v>
+      </c>
+      <c r="N197" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="23">
+        <v>197</v>
+      </c>
+      <c r="B198" s="36">
+        <v>35</v>
+      </c>
+      <c r="C198" s="35">
+        <v>53</v>
+      </c>
+      <c r="D198" s="37"/>
+      <c r="E198" s="33">
+        <f>LOOKUP(use_fish!B198,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C198,activity!A:A,0)),0)</f>
+        <v>350</v>
+      </c>
+      <c r="F198" s="35">
+        <f t="shared" si="12"/>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="G198" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H198" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B198,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C198,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I198" s="33">
+        <f>LOOKUP(use_fish!B198,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C198,activity!A:A,0)),0)</f>
+        <v>350</v>
+      </c>
+      <c r="J198" s="33">
+        <v>1</v>
+      </c>
+      <c r="K198" s="33">
+        <f>LOOKUP(use_fish!B198,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L198" s="33">
+        <f t="shared" si="13"/>
+        <v>350</v>
+      </c>
+      <c r="M198" s="33">
+        <v>1</v>
+      </c>
+      <c r="N198" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="23">
+        <v>198</v>
+      </c>
+      <c r="B199" s="36">
+        <v>35</v>
+      </c>
+      <c r="C199" s="35">
+        <v>54</v>
+      </c>
+      <c r="D199" s="37"/>
+      <c r="E199" s="33">
+        <f>LOOKUP(use_fish!B199,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C199,activity!A:A,0)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="F199" s="35">
+        <f t="shared" si="12"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="G199" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H199" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B199,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C199,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I199" s="33">
+        <f>LOOKUP(use_fish!B199,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C199,activity!A:A,0)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="J199" s="33">
+        <v>1</v>
+      </c>
+      <c r="K199" s="33">
+        <f>LOOKUP(use_fish!B199,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L199" s="33">
+        <f t="shared" si="13"/>
+        <v>450</v>
+      </c>
+      <c r="M199" s="33">
+        <v>1</v>
+      </c>
+      <c r="N199" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="23"/>
       <c r="B200" s="24"/>
       <c r="C200" s="23"/>
@@ -17848,7 +18487,7 @@
       <c r="G200" s="24"/>
       <c r="H200" s="23"/>
     </row>
-    <row r="201" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="23"/>
       <c r="B201" s="24"/>
       <c r="C201" s="23"/>
@@ -17857,7 +18496,7 @@
       <c r="G201" s="24"/>
       <c r="H201" s="23"/>
     </row>
-    <row r="202" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="23"/>
       <c r="B202" s="24"/>
       <c r="C202" s="23"/>
@@ -17866,7 +18505,7 @@
       <c r="G202" s="24"/>
       <c r="H202" s="23"/>
     </row>
-    <row r="203" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="23"/>
       <c r="B203" s="24"/>
       <c r="C203" s="23"/>
@@ -17875,7 +18514,7 @@
       <c r="G203" s="24"/>
       <c r="H203" s="23"/>
     </row>
-    <row r="204" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="23"/>
       <c r="B204" s="24"/>
       <c r="C204" s="23"/>
@@ -17884,7 +18523,7 @@
       <c r="G204" s="24"/>
       <c r="H204" s="23"/>
     </row>
-    <row r="205" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="23"/>
       <c r="B205" s="24"/>
       <c r="C205" s="23"/>
@@ -17893,7 +18532,7 @@
       <c r="G205" s="24"/>
       <c r="H205" s="23"/>
     </row>
-    <row r="206" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="23"/>
       <c r="B206" s="24"/>
       <c r="C206" s="23"/>
@@ -17902,7 +18541,7 @@
       <c r="G206" s="24"/>
       <c r="H206" s="23"/>
     </row>
-    <row r="207" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="23"/>
       <c r="B207" s="24"/>
       <c r="C207" s="23"/>
@@ -17923,8 +18562,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19294,20 +19933,96 @@
       </c>
     </row>
     <row r="53" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="A53" s="22">
+        <v>52</v>
+      </c>
+      <c r="B53" s="33">
+        <v>9</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="D53" s="34">
+        <v>0</v>
+      </c>
+      <c r="E53" s="34">
+        <v>1</v>
+      </c>
+      <c r="F53" s="33">
+        <v>250</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="54" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="A54" s="22">
+        <v>53</v>
+      </c>
+      <c r="B54" s="33">
+        <v>9</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="D54" s="34">
+        <v>0</v>
+      </c>
+      <c r="E54" s="34">
+        <v>1</v>
+      </c>
+      <c r="F54" s="33">
+        <v>350</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="55" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="A55" s="22">
+        <v>54</v>
+      </c>
+      <c r="B55" s="33">
+        <v>9</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D55" s="34">
+        <v>0</v>
+      </c>
+      <c r="E55" s="34">
+        <v>1</v>
+      </c>
+      <c r="F55" s="33">
+        <v>450</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="56" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="A56" s="22">
+        <v>55</v>
+      </c>
+      <c r="B56" s="33">
+        <v>9</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D56" s="34">
+        <v>1</v>
+      </c>
+      <c r="E56" s="34">
+        <v>1</v>
+      </c>
+      <c r="F56" s="33">
+        <v>10</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="57" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D57" s="4"/>
